--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>791638.1012604637</v>
+        <v>860407.1739042453</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10452948.78292087</v>
+        <v>10452948.78292088</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16259643.73110938</v>
+        <v>16259643.73110937</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5611052.290042096</v>
+        <v>5611052.290042097</v>
       </c>
     </row>
     <row r="11">
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="S11" t="n">
-        <v>40.76693754515991</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.28398903855574</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="V11" t="n">
-        <v>46.28398903855574</v>
+        <v>40.7669375451598</v>
       </c>
       <c r="W11" t="n">
-        <v>46.28398903855574</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="C12" t="n">
-        <v>46.28398903855574</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>40.7669375451598</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>46.28398903855574</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>40.76693754515988</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>46.28398903855574</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.12594602561786</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.28398903855574</v>
+        <v>40.7669375451598</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="T13" t="n">
-        <v>46.28398903855574</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>12.64099151954204</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>46.28398903855574</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>46.28398903855567</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.28398903855567</v>
+        <v>40.7669375451598</v>
       </c>
       <c r="T14" t="n">
-        <v>46.28398903855567</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>40.76693754515982</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>40.7669375451598</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>40.76693754515983</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>46.28398903855567</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>46.28398903855567</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>46.28398903855567</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.28398903855567</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="C16" t="n">
-        <v>46.28398903855567</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>12.64099151954197</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>28.12594602561786</v>
       </c>
       <c r="R16" t="n">
-        <v>46.28398903855567</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>12.64099151954195</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,76 +1843,76 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>60.69273793527145</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="U17" t="n">
         <v>60.69273793527145</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>53.45816357338706</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>60.69273793527145</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>53.45816357338707</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>60.69273793527145</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>4.628518370658917</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>60.69273793527145</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1976,13 +1976,13 @@
         <v>60.69273793527145</v>
       </c>
       <c r="T18" t="n">
-        <v>4.628518370658917</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>60.69273793527145</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>53.45816357338707</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>60.69273793527145</v>
+        <v>0.6467844555600659</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>52.81137911782699</v>
       </c>
       <c r="S20" t="n">
-        <v>53.45816357338706</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>60.69273793527146</v>
       </c>
     </row>
     <row r="21">
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>48.82964520272813</v>
       </c>
       <c r="S21" t="n">
-        <v>60.69273793527145</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="T21" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>4.628518370658944</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>53.45816357338707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>53.45816357338707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>44.35834110601193</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>60.69273793527145</v>
+        <v>9.099822467375176</v>
       </c>
       <c r="T22" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,17 +2326,17 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>83.67031649401969</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>73.69681476793254</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -2365,17 +2365,17 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>52.81137911782699</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>83.67031649401969</v>
       </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>83.67031649401969</v>
       </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>20.88543565010554</v>
       </c>
       <c r="Y23" t="n">
-        <v>83.67031649401969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2405,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>83.67031649401969</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>24.86716956520442</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>83.67031649401969</v>
-      </c>
-      <c r="V24" t="n">
-        <v>83.67031649401969</v>
-      </c>
-      <c r="W24" t="n">
-        <v>24.86716956520442</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>83.67031649401969</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.67031649401969</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>73.69681476793251</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>73.69681476793251</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>83.67031649401969</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>83.67031649401969</v>
       </c>
       <c r="X25" t="n">
-        <v>83.67031649401969</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,73 +2557,73 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
         <v>83.67031649401969</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>73.69681476793254</v>
+      </c>
+      <c r="W26" t="n">
         <v>83.67031649401969</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>52.81137911782699</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>20.88543565010551</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>83.67031649401969</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,70 +2633,70 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>73.69681476793254</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>83.67031649401969</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="V27" t="n">
         <v>83.67031649401969</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>48.82964520272813</v>
-      </c>
-      <c r="S27" t="n">
+      <c r="W27" t="n">
         <v>83.67031649401969</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>24.86716956520443</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2712,73 +2712,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>83.67031649401969</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>28.12594602561786</v>
+      </c>
+      <c r="R28" t="n">
+        <v>45.57086874231466</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>83.67031649401969</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
       <c r="V28" t="n">
-        <v>73.69681476793251</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>83.67031649401969</v>
       </c>
       <c r="X28" t="n">
-        <v>83.67031649401969</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2803,61 +2803,61 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>52.81137911782699</v>
+      </c>
+      <c r="S29" t="n">
         <v>83.67031649401969</v>
       </c>
-      <c r="G29" t="n">
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>83.67031649401969</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
+      <c r="W29" t="n">
         <v>83.67031649401969</v>
       </c>
-      <c r="U29" t="n">
-        <v>73.69681476793254</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>20.88543565010554</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>24.86716956520443</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>83.67031649401969</v>
       </c>
       <c r="H30" t="n">
-        <v>83.67031649401969</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>48.82964520272813</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>73.69681476793254</v>
       </c>
     </row>
     <row r="31">
@@ -2955,70 +2955,70 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>83.67031649401969</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>83.67031649401969</v>
+      </c>
+      <c r="W31" t="n">
         <v>73.69681476793254</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>83.67031649401969</v>
-      </c>
-      <c r="T31" t="n">
-        <v>83.67031649401969</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>52.81137911782699</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>73.69681476793251</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>20.88543565010551</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>24.86716956520442</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>83.67031649401969</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>83.67031649401969</v>
       </c>
-      <c r="U33" t="n">
+      <c r="W33" t="n">
         <v>83.67031649401969</v>
       </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>24.86716956520442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3192,56 +3192,56 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>29.3384736619206</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>83.67031649401969</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="T34" t="n">
         <v>83.67031649401969</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>44.35834110601193</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>83.67031649401969</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.67031649401969</v>
+        <v>73.69681476793254</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.6467844555602427</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>52.81137911782699</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>60.69273793527145</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>53.45816357338706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>48.82964520272813</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="U36" t="n">
-        <v>53.45816357338706</v>
+        <v>4.628518370659127</v>
       </c>
       <c r="V36" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>60.69273793527145</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="X36" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>53.45816357338707</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="W37" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>53.45816357338724</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>53.45816357338712</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>60.69273793527152</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="W38" t="n">
-        <v>60.69273793527152</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>60.69273793527152</v>
+        <v>53.45816357338724</v>
       </c>
     </row>
     <row r="39">
@@ -3587,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>4.628518370659001</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>60.69273793527152</v>
+        <v>53.45816357338724</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>60.69273793527152</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>48.82964520272812</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>60.69273793527152</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
     </row>
     <row r="40">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.69273793527152</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>60.69273793527152</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>9.099822467375191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>44.35834110601193</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>53.45816357338722</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>60.69273793527152</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.28398903855572</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="I41" t="n">
-        <v>40.76693754515986</v>
+        <v>40.76693754515996</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="S41" t="n">
-        <v>46.28398903855572</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>46.28398903855572</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>40.76693754515986</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>46.28398903855572</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="W42" t="n">
-        <v>46.28398903855572</v>
+        <v>40.76693754515996</v>
       </c>
       <c r="X42" t="n">
-        <v>46.28398903855572</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>46.28398903855572</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>46.28398903855572</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>40.76693754515986</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.28398903855572</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.76693754515996</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>46.28398903855572</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>40.7669375451598</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.76693754515986</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>46.28398903855572</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="U44" t="n">
-        <v>46.28398903855572</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>40.76693754515986</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>46.28398903855572</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="T45" t="n">
-        <v>46.28398903855572</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>46.28398903855572</v>
+        <v>40.7669375451598</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>40.7669375451598</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>46.28398903855572</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>46.28398903855572</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.28398903855572</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>40.76693754515986</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="C11" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="D11" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="E11" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="F11" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="G11" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="H11" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="I11" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="J11" t="n">
-        <v>3.702719123084459</v>
+        <v>23.0101270220369</v>
       </c>
       <c r="K11" t="n">
-        <v>3.702719123084459</v>
+        <v>23.0101270220369</v>
       </c>
       <c r="L11" t="n">
-        <v>49.52386827125463</v>
+        <v>68.831276170207</v>
       </c>
       <c r="M11" t="n">
-        <v>95.34501741942481</v>
+        <v>109.3824564477006</v>
       </c>
       <c r="N11" t="n">
-        <v>141.166166567595</v>
+        <v>155.2036055958707</v>
       </c>
       <c r="O11" t="n">
-        <v>185.135956154223</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="P11" t="n">
-        <v>185.135956154223</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="Q11" t="n">
-        <v>185.135956154223</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="R11" t="n">
-        <v>185.135956154223</v>
+        <v>138.3844520748735</v>
       </c>
       <c r="S11" t="n">
-        <v>143.9572313611321</v>
+        <v>91.63294799552432</v>
       </c>
       <c r="T11" t="n">
-        <v>143.9572313611321</v>
+        <v>91.63294799552432</v>
       </c>
       <c r="U11" t="n">
-        <v>97.20572728178291</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="V11" t="n">
-        <v>50.45422320243369</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="W11" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="X11" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.45422320243369</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="C12" t="n">
-        <v>3.702719123084459</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="D12" t="n">
-        <v>3.702719123084459</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="E12" t="n">
-        <v>3.702719123084459</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="F12" t="n">
-        <v>3.702719123084459</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="G12" t="n">
-        <v>3.702719123084459</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="H12" t="n">
-        <v>3.702719123084459</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="I12" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="J12" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="K12" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="L12" t="n">
         <v>44.23888271898912</v>
       </c>
       <c r="M12" t="n">
-        <v>90.0600318671593</v>
+        <v>69.84268799685546</v>
       </c>
       <c r="N12" t="n">
-        <v>135.8811810153295</v>
+        <v>115.6638371450256</v>
       </c>
       <c r="O12" t="n">
-        <v>161.484986293196</v>
+        <v>161.4849862931956</v>
       </c>
       <c r="P12" t="n">
-        <v>185.135956154223</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.135956154223</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="R12" t="n">
-        <v>185.135956154223</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="S12" t="n">
-        <v>138.3844520748737</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="T12" t="n">
-        <v>138.3844520748737</v>
+        <v>138.3844520748735</v>
       </c>
       <c r="U12" t="n">
-        <v>138.3844520748737</v>
+        <v>138.3844520748735</v>
       </c>
       <c r="V12" t="n">
-        <v>138.3844520748737</v>
+        <v>138.3844520748735</v>
       </c>
       <c r="W12" t="n">
-        <v>97.20572728178291</v>
+        <v>138.3844520748735</v>
       </c>
       <c r="X12" t="n">
-        <v>50.45422320243369</v>
+        <v>91.63294799552432</v>
       </c>
       <c r="Y12" t="n">
-        <v>50.45422320243369</v>
+        <v>91.63294799552432</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="C13" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="D13" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="E13" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="F13" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="G13" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="H13" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="I13" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="J13" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="K13" t="n">
-        <v>49.52386827125463</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="L13" t="n">
-        <v>49.52386827125463</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="M13" t="n">
-        <v>49.52386827125463</v>
+        <v>49.52386827125456</v>
       </c>
       <c r="N13" t="n">
-        <v>95.34501741942481</v>
+        <v>95.34501741942466</v>
       </c>
       <c r="O13" t="n">
-        <v>141.166166567595</v>
+        <v>141.1661665675948</v>
       </c>
       <c r="P13" t="n">
-        <v>185.135956154223</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="Q13" t="n">
-        <v>156.7259096636999</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9744055843506</v>
+        <v>143.9572313611319</v>
       </c>
       <c r="S13" t="n">
-        <v>109.9744055843506</v>
+        <v>97.20572728178277</v>
       </c>
       <c r="T13" t="n">
-        <v>63.2229015050014</v>
+        <v>50.45422320243361</v>
       </c>
       <c r="U13" t="n">
-        <v>63.2229015050014</v>
+        <v>50.45422320243361</v>
       </c>
       <c r="V13" t="n">
-        <v>50.45422320243369</v>
+        <v>50.45422320243361</v>
       </c>
       <c r="W13" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="X13" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.702719123084459</v>
+        <v>3.702719123084453</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.702719123084453</v>
+        <v>97.20572728178277</v>
       </c>
       <c r="C14" t="n">
-        <v>3.702719123084453</v>
+        <v>97.20572728178277</v>
       </c>
       <c r="D14" t="n">
-        <v>3.702719123084453</v>
+        <v>97.20572728178277</v>
       </c>
       <c r="E14" t="n">
-        <v>3.702719123084453</v>
+        <v>50.45422320243361</v>
       </c>
       <c r="F14" t="n">
-        <v>3.702719123084453</v>
+        <v>50.45422320243361</v>
       </c>
       <c r="G14" t="n">
         <v>3.702719123084453</v>
@@ -5278,52 +5278,52 @@
         <v>3.702719123084453</v>
       </c>
       <c r="J14" t="n">
-        <v>3.702719123084453</v>
+        <v>23.0101270220369</v>
       </c>
       <c r="K14" t="n">
-        <v>3.702719123084453</v>
+        <v>23.0101270220369</v>
       </c>
       <c r="L14" t="n">
-        <v>11.68492570900776</v>
+        <v>68.831276170207</v>
       </c>
       <c r="M14" t="n">
-        <v>52.23610598650136</v>
+        <v>109.3824564477006</v>
       </c>
       <c r="N14" t="n">
-        <v>98.05725513467146</v>
+        <v>155.2036055958707</v>
       </c>
       <c r="O14" t="n">
-        <v>143.8784042828416</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="P14" t="n">
-        <v>143.8784042828416</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="Q14" t="n">
-        <v>185.1359561542227</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="R14" t="n">
-        <v>138.3844520748735</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="S14" t="n">
-        <v>91.63294799552435</v>
+        <v>143.9572313611319</v>
       </c>
       <c r="T14" t="n">
-        <v>44.88144391617519</v>
+        <v>143.9572313611319</v>
       </c>
       <c r="U14" t="n">
-        <v>44.88144391617519</v>
+        <v>143.9572313611319</v>
       </c>
       <c r="V14" t="n">
-        <v>3.702719123084453</v>
+        <v>97.20572728178277</v>
       </c>
       <c r="W14" t="n">
-        <v>3.702719123084453</v>
+        <v>97.20572728178277</v>
       </c>
       <c r="X14" t="n">
-        <v>3.702719123084453</v>
+        <v>97.20572728178277</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.702719123084453</v>
+        <v>97.20572728178277</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.702719123084453</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="C15" t="n">
-        <v>3.702719123084453</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="D15" t="n">
-        <v>3.702719123084453</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="E15" t="n">
-        <v>3.702719123084453</v>
+        <v>143.9572313611319</v>
       </c>
       <c r="F15" t="n">
-        <v>3.702719123084453</v>
+        <v>97.20572728178277</v>
       </c>
       <c r="G15" t="n">
-        <v>3.702719123084453</v>
+        <v>50.45422320243361</v>
       </c>
       <c r="H15" t="n">
         <v>3.702719123084453</v>
@@ -5366,43 +5366,43 @@
         <v>44.23888271898912</v>
       </c>
       <c r="M15" t="n">
-        <v>69.84268799685546</v>
+        <v>90.06003186715921</v>
       </c>
       <c r="N15" t="n">
-        <v>115.6638371450256</v>
+        <v>135.8811810153293</v>
       </c>
       <c r="O15" t="n">
-        <v>161.4849862931957</v>
+        <v>181.7023301634994</v>
       </c>
       <c r="P15" t="n">
-        <v>185.1359561542227</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.1359561542227</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="R15" t="n">
-        <v>185.1359561542227</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="S15" t="n">
-        <v>185.1359561542227</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="T15" t="n">
-        <v>143.9572313611319</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="U15" t="n">
-        <v>97.20572728178277</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="V15" t="n">
-        <v>50.45422320243362</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="W15" t="n">
-        <v>3.702719123084453</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="X15" t="n">
-        <v>3.702719123084453</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.702719123084453</v>
+        <v>185.1359561542226</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.22290150500126</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="C16" t="n">
-        <v>16.4713974256521</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="D16" t="n">
-        <v>16.4713974256521</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="E16" t="n">
-        <v>16.4713974256521</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="F16" t="n">
-        <v>16.4713974256521</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="G16" t="n">
-        <v>16.4713974256521</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="H16" t="n">
         <v>3.702719123084453</v>
@@ -5445,43 +5445,43 @@
         <v>95.34501741942466</v>
       </c>
       <c r="M16" t="n">
+        <v>95.34501741942466</v>
+      </c>
+      <c r="N16" t="n">
+        <v>95.34501741942466</v>
+      </c>
+      <c r="O16" t="n">
         <v>141.1661665675948</v>
       </c>
-      <c r="N16" t="n">
-        <v>185.1359561542227</v>
-      </c>
-      <c r="O16" t="n">
-        <v>185.1359561542227</v>
-      </c>
       <c r="P16" t="n">
-        <v>185.1359561542227</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="Q16" t="n">
         <v>156.7259096636996</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9744055843504</v>
+        <v>156.7259096636996</v>
       </c>
       <c r="S16" t="n">
-        <v>109.9744055843504</v>
+        <v>143.9572313611319</v>
       </c>
       <c r="T16" t="n">
-        <v>109.9744055843504</v>
+        <v>97.20572728178277</v>
       </c>
       <c r="U16" t="n">
-        <v>109.9744055843504</v>
+        <v>50.45422320243361</v>
       </c>
       <c r="V16" t="n">
-        <v>109.9744055843504</v>
+        <v>50.45422320243361</v>
       </c>
       <c r="W16" t="n">
-        <v>109.9744055843504</v>
+        <v>50.45422320243361</v>
       </c>
       <c r="X16" t="n">
-        <v>109.9744055843504</v>
+        <v>50.45422320243361</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.9744055843504</v>
+        <v>50.45422320243361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66.16121492903531</v>
+        <v>4.855419034821716</v>
       </c>
       <c r="C17" t="n">
-        <v>66.16121492903531</v>
+        <v>4.855419034821716</v>
       </c>
       <c r="D17" t="n">
-        <v>66.16121492903531</v>
+        <v>4.855419034821716</v>
       </c>
       <c r="E17" t="n">
-        <v>66.16121492903531</v>
+        <v>4.855419034821716</v>
       </c>
       <c r="F17" t="n">
-        <v>66.16121492903531</v>
+        <v>4.855419034821716</v>
       </c>
       <c r="G17" t="n">
         <v>4.855419034821716</v>
@@ -5524,7 +5524,7 @@
         <v>64.94122959074045</v>
       </c>
       <c r="M17" t="n">
-        <v>122.5993306292483</v>
+        <v>125.0270401466592</v>
       </c>
       <c r="N17" t="n">
         <v>182.6851411851671</v>
@@ -5545,22 +5545,22 @@
         <v>242.7709517410858</v>
       </c>
       <c r="T17" t="n">
-        <v>188.7728067174625</v>
+        <v>181.4651558468722</v>
       </c>
       <c r="U17" t="n">
-        <v>188.7728067174625</v>
+        <v>120.1593599526586</v>
       </c>
       <c r="V17" t="n">
-        <v>188.7728067174625</v>
+        <v>58.85356405844502</v>
       </c>
       <c r="W17" t="n">
-        <v>188.7728067174625</v>
+        <v>4.855419034821716</v>
       </c>
       <c r="X17" t="n">
-        <v>188.7728067174625</v>
+        <v>4.855419034821716</v>
       </c>
       <c r="Y17" t="n">
-        <v>127.4670108232489</v>
+        <v>4.855419034821716</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.855419034821716</v>
+        <v>132.1422819047226</v>
       </c>
       <c r="C18" t="n">
-        <v>4.855419034821716</v>
+        <v>70.83648601050896</v>
       </c>
       <c r="D18" t="n">
-        <v>4.855419034821716</v>
+        <v>70.83648601050896</v>
       </c>
       <c r="E18" t="n">
-        <v>4.855419034821716</v>
+        <v>66.16121492903531</v>
       </c>
       <c r="F18" t="n">
         <v>4.855419034821716</v>
@@ -5600,13 +5600,13 @@
         <v>4.855419034821716</v>
       </c>
       <c r="L18" t="n">
-        <v>45.39158263072644</v>
+        <v>45.39158263072638</v>
       </c>
       <c r="M18" t="n">
-        <v>105.4773931866452</v>
+        <v>105.4773931866451</v>
       </c>
       <c r="N18" t="n">
-        <v>165.5632037425639</v>
+        <v>165.5632037425638</v>
       </c>
       <c r="O18" t="n">
         <v>219.1199818800588</v>
@@ -5624,22 +5624,22 @@
         <v>132.1422819047226</v>
       </c>
       <c r="T18" t="n">
-        <v>127.4670108232489</v>
+        <v>132.1422819047226</v>
       </c>
       <c r="U18" t="n">
-        <v>66.16121492903531</v>
+        <v>132.1422819047226</v>
       </c>
       <c r="V18" t="n">
-        <v>4.855419034821716</v>
+        <v>132.1422819047226</v>
       </c>
       <c r="W18" t="n">
-        <v>4.855419034821716</v>
+        <v>132.1422819047226</v>
       </c>
       <c r="X18" t="n">
-        <v>4.855419034821716</v>
+        <v>132.1422819047226</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.855419034821716</v>
+        <v>132.1422819047226</v>
       </c>
     </row>
     <row r="19">
@@ -5676,13 +5676,13 @@
         <v>4.855419034821716</v>
       </c>
       <c r="K19" t="n">
-        <v>4.855419034821716</v>
+        <v>62.52681877509315</v>
       </c>
       <c r="L19" t="n">
-        <v>64.94122959074045</v>
+        <v>122.5993306292483</v>
       </c>
       <c r="M19" t="n">
-        <v>125.0270401466592</v>
+        <v>182.6851411851671</v>
       </c>
       <c r="N19" t="n">
         <v>182.6851411851671</v>
@@ -5712,10 +5712,10 @@
         <v>58.85356405844502</v>
       </c>
       <c r="W19" t="n">
-        <v>4.855419034821716</v>
+        <v>58.85356405844502</v>
       </c>
       <c r="X19" t="n">
-        <v>4.855419034821716</v>
+        <v>58.85356405844502</v>
       </c>
       <c r="Y19" t="n">
         <v>4.855419034821716</v>
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>127.4670108232489</v>
+        <v>66.81453256091417</v>
       </c>
       <c r="C20" t="n">
-        <v>66.16121492903531</v>
+        <v>66.81453256091417</v>
       </c>
       <c r="D20" t="n">
-        <v>66.16121492903531</v>
+        <v>66.81453256091417</v>
       </c>
       <c r="E20" t="n">
-        <v>66.16121492903531</v>
+        <v>66.81453256091417</v>
       </c>
       <c r="F20" t="n">
-        <v>66.16121492903531</v>
+        <v>5.508736666700571</v>
       </c>
       <c r="G20" t="n">
-        <v>66.16121492903531</v>
+        <v>5.508736666700571</v>
       </c>
       <c r="H20" t="n">
-        <v>66.16121492903531</v>
+        <v>5.508736666700571</v>
       </c>
       <c r="I20" t="n">
-        <v>4.855419034821716</v>
+        <v>4.855419034821717</v>
       </c>
       <c r="J20" t="n">
-        <v>4.855419034821716</v>
+        <v>4.855419034821717</v>
       </c>
       <c r="K20" t="n">
-        <v>4.855419034821716</v>
+        <v>4.855419034821717</v>
       </c>
       <c r="L20" t="n">
-        <v>52.11579979340279</v>
+        <v>64.94122959074046</v>
       </c>
       <c r="M20" t="n">
-        <v>92.66698007089639</v>
+        <v>105.4924098682341</v>
       </c>
       <c r="N20" t="n">
-        <v>152.7527906268151</v>
+        <v>151.3135590164042</v>
       </c>
       <c r="O20" t="n">
         <v>182.6851411851671</v>
@@ -5776,28 +5776,28 @@
         <v>242.7709517410858</v>
       </c>
       <c r="R20" t="n">
-        <v>242.7709517410858</v>
+        <v>189.4261243493414</v>
       </c>
       <c r="S20" t="n">
-        <v>188.7728067174625</v>
+        <v>128.1203284551278</v>
       </c>
       <c r="T20" t="n">
-        <v>188.7728067174625</v>
+        <v>128.1203284551278</v>
       </c>
       <c r="U20" t="n">
-        <v>188.7728067174625</v>
+        <v>128.1203284551278</v>
       </c>
       <c r="V20" t="n">
-        <v>188.7728067174625</v>
+        <v>128.1203284551278</v>
       </c>
       <c r="W20" t="n">
-        <v>127.4670108232489</v>
+        <v>128.1203284551278</v>
       </c>
       <c r="X20" t="n">
-        <v>127.4670108232489</v>
+        <v>128.1203284551278</v>
       </c>
       <c r="Y20" t="n">
-        <v>127.4670108232489</v>
+        <v>66.81453256091417</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.855419034821716</v>
+        <v>127.4670108232489</v>
       </c>
       <c r="C21" t="n">
-        <v>4.855419034821716</v>
+        <v>127.4670108232489</v>
       </c>
       <c r="D21" t="n">
-        <v>4.855419034821716</v>
+        <v>127.4670108232489</v>
       </c>
       <c r="E21" t="n">
-        <v>4.855419034821716</v>
+        <v>127.4670108232489</v>
       </c>
       <c r="F21" t="n">
-        <v>4.855419034821716</v>
+        <v>66.16121492903532</v>
       </c>
       <c r="G21" t="n">
-        <v>4.855419034821716</v>
+        <v>66.16121492903532</v>
       </c>
       <c r="H21" t="n">
-        <v>4.855419034821716</v>
+        <v>4.855419034821717</v>
       </c>
       <c r="I21" t="n">
-        <v>4.855419034821716</v>
+        <v>4.855419034821717</v>
       </c>
       <c r="J21" t="n">
-        <v>4.855419034821716</v>
+        <v>4.855419034821717</v>
       </c>
       <c r="K21" t="n">
-        <v>4.855419034821716</v>
+        <v>4.855419034821717</v>
       </c>
       <c r="L21" t="n">
-        <v>45.39158263072638</v>
+        <v>45.39158263072639</v>
       </c>
       <c r="M21" t="n">
         <v>105.4773931866451</v>
       </c>
       <c r="N21" t="n">
-        <v>165.5632037425638</v>
+        <v>165.5632037425639</v>
       </c>
       <c r="O21" t="n">
         <v>219.1199818800588</v>
@@ -5855,28 +5855,28 @@
         <v>242.7709517410858</v>
       </c>
       <c r="R21" t="n">
-        <v>242.7709517410858</v>
+        <v>193.4480777989362</v>
       </c>
       <c r="S21" t="n">
-        <v>181.4651558468722</v>
+        <v>132.1422819047226</v>
       </c>
       <c r="T21" t="n">
-        <v>120.1593599526586</v>
+        <v>132.1422819047226</v>
       </c>
       <c r="U21" t="n">
-        <v>58.85356405844502</v>
+        <v>132.1422819047226</v>
       </c>
       <c r="V21" t="n">
-        <v>58.85356405844502</v>
+        <v>127.4670108232489</v>
       </c>
       <c r="W21" t="n">
-        <v>58.85356405844502</v>
+        <v>127.4670108232489</v>
       </c>
       <c r="X21" t="n">
-        <v>58.85356405844502</v>
+        <v>127.4670108232489</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.855419034821716</v>
+        <v>127.4670108232489</v>
       </c>
     </row>
     <row r="22">
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58.85356405844502</v>
+        <v>110.9676200866231</v>
       </c>
       <c r="C22" t="n">
-        <v>4.855419034821716</v>
+        <v>110.9676200866231</v>
       </c>
       <c r="D22" t="n">
-        <v>4.855419034821716</v>
+        <v>49.66182419240953</v>
       </c>
       <c r="E22" t="n">
-        <v>4.855419034821716</v>
+        <v>49.66182419240953</v>
       </c>
       <c r="F22" t="n">
-        <v>4.855419034821716</v>
+        <v>49.66182419240953</v>
       </c>
       <c r="G22" t="n">
-        <v>4.855419034821716</v>
+        <v>49.66182419240953</v>
       </c>
       <c r="H22" t="n">
-        <v>4.855419034821716</v>
+        <v>49.66182419240953</v>
       </c>
       <c r="I22" t="n">
-        <v>4.855419034821716</v>
+        <v>49.66182419240953</v>
       </c>
       <c r="J22" t="n">
-        <v>4.855419034821716</v>
+        <v>4.855419034821717</v>
       </c>
       <c r="K22" t="n">
-        <v>62.52681877509315</v>
+        <v>62.51352007332958</v>
       </c>
       <c r="L22" t="n">
-        <v>62.52681877509315</v>
+        <v>122.5993306292483</v>
       </c>
       <c r="M22" t="n">
-        <v>122.5993306292483</v>
+        <v>182.6851411851671</v>
       </c>
       <c r="N22" t="n">
-        <v>122.5993306292483</v>
+        <v>182.6851411851671</v>
       </c>
       <c r="O22" t="n">
-        <v>182.6851411851671</v>
+        <v>242.7709517410858</v>
       </c>
       <c r="P22" t="n">
         <v>242.7709517410858</v>
@@ -5937,25 +5937,25 @@
         <v>242.7709517410858</v>
       </c>
       <c r="S22" t="n">
-        <v>181.4651558468722</v>
+        <v>233.5792118750503</v>
       </c>
       <c r="T22" t="n">
-        <v>120.1593599526586</v>
+        <v>233.5792118750503</v>
       </c>
       <c r="U22" t="n">
-        <v>120.1593599526586</v>
+        <v>233.5792118750503</v>
       </c>
       <c r="V22" t="n">
-        <v>58.85356405844502</v>
+        <v>233.5792118750503</v>
       </c>
       <c r="W22" t="n">
-        <v>58.85356405844502</v>
+        <v>172.2734159808367</v>
       </c>
       <c r="X22" t="n">
-        <v>58.85356405844502</v>
+        <v>110.9676200866231</v>
       </c>
       <c r="Y22" t="n">
-        <v>58.85356405844502</v>
+        <v>110.9676200866231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.6503235639178</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="C23" t="n">
-        <v>165.6503235639178</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="D23" t="n">
-        <v>165.6503235639178</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="E23" t="n">
-        <v>81.13485235783727</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="F23" t="n">
-        <v>81.13485235783727</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="G23" t="n">
-        <v>6.693625319521575</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="H23" t="n">
         <v>6.693625319521575</v>
@@ -5989,22 +5989,22 @@
         <v>6.693625319521575</v>
       </c>
       <c r="J23" t="n">
-        <v>6.693625319521575</v>
+        <v>89.52723864860106</v>
       </c>
       <c r="K23" t="n">
-        <v>89.52723864860106</v>
+        <v>172.3608519776805</v>
       </c>
       <c r="L23" t="n">
-        <v>135.5429726629836</v>
+        <v>180.3430585636038</v>
       </c>
       <c r="M23" t="n">
-        <v>176.0941529404772</v>
+        <v>220.8942388410974</v>
       </c>
       <c r="N23" t="n">
-        <v>221.9153020886473</v>
+        <v>266.7153879892675</v>
       </c>
       <c r="O23" t="n">
-        <v>251.8476526469993</v>
+        <v>334.6812659760787</v>
       </c>
       <c r="P23" t="n">
         <v>334.6812659760787</v>
@@ -6013,28 +6013,28 @@
         <v>334.6812659760787</v>
       </c>
       <c r="R23" t="n">
-        <v>334.6812659760787</v>
+        <v>281.3364385843343</v>
       </c>
       <c r="S23" t="n">
-        <v>334.6812659760787</v>
+        <v>196.8209673782538</v>
       </c>
       <c r="T23" t="n">
-        <v>250.1657947699983</v>
+        <v>196.8209673782538</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1657947699983</v>
+        <v>112.3054961721733</v>
       </c>
       <c r="V23" t="n">
-        <v>250.1657947699983</v>
+        <v>112.3054961721733</v>
       </c>
       <c r="W23" t="n">
-        <v>250.1657947699983</v>
+        <v>112.3054961721733</v>
       </c>
       <c r="X23" t="n">
-        <v>250.1657947699983</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.6503235639178</v>
+        <v>91.20909652560206</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.693625319521575</v>
+        <v>116.3274496217682</v>
       </c>
       <c r="C24" t="n">
-        <v>6.693625319521575</v>
+        <v>116.3274496217682</v>
       </c>
       <c r="D24" t="n">
-        <v>6.693625319521575</v>
+        <v>116.3274496217682</v>
       </c>
       <c r="E24" t="n">
-        <v>6.693625319521575</v>
+        <v>31.81197841568766</v>
       </c>
       <c r="F24" t="n">
-        <v>6.693625319521575</v>
+        <v>31.81197841568766</v>
       </c>
       <c r="G24" t="n">
         <v>6.693625319521575</v>
@@ -6068,7 +6068,7 @@
         <v>6.693625319521575</v>
       </c>
       <c r="J24" t="n">
-        <v>67.44308193120139</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="K24" t="n">
         <v>67.44308193120139</v>
@@ -6101,19 +6101,19 @@
         <v>200.8429208278486</v>
       </c>
       <c r="U24" t="n">
+        <v>200.8429208278486</v>
+      </c>
+      <c r="V24" t="n">
+        <v>200.8429208278486</v>
+      </c>
+      <c r="W24" t="n">
+        <v>200.8429208278486</v>
+      </c>
+      <c r="X24" t="n">
         <v>116.3274496217682</v>
       </c>
-      <c r="V24" t="n">
-        <v>31.81197841568766</v>
-      </c>
-      <c r="W24" t="n">
-        <v>6.693625319521575</v>
-      </c>
-      <c r="X24" t="n">
-        <v>6.693625319521575</v>
-      </c>
       <c r="Y24" t="n">
-        <v>6.693625319521575</v>
+        <v>116.3274496217682</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.693625319521575</v>
+        <v>175.7245677316826</v>
       </c>
       <c r="C25" t="n">
-        <v>6.693625319521575</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="D25" t="n">
-        <v>6.693625319521575</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="E25" t="n">
-        <v>6.693625319521575</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="F25" t="n">
         <v>6.693625319521575</v>
@@ -6150,19 +6150,19 @@
         <v>6.693625319521575</v>
       </c>
       <c r="K25" t="n">
-        <v>6.693625319521575</v>
+        <v>64.36502505979301</v>
       </c>
       <c r="L25" t="n">
-        <v>86.18042598884033</v>
+        <v>147.1986383888725</v>
       </c>
       <c r="M25" t="n">
-        <v>169.0140393179198</v>
+        <v>171.5551115096842</v>
       </c>
       <c r="N25" t="n">
-        <v>251.8476526469993</v>
+        <v>171.5551115096842</v>
       </c>
       <c r="O25" t="n">
-        <v>334.6812659760787</v>
+        <v>254.3887248387637</v>
       </c>
       <c r="P25" t="n">
         <v>334.6812659760787</v>
@@ -6171,10 +6171,10 @@
         <v>334.6812659760787</v>
       </c>
       <c r="R25" t="n">
-        <v>334.6812659760787</v>
+        <v>260.2400389377631</v>
       </c>
       <c r="S25" t="n">
-        <v>334.6812659760787</v>
+        <v>260.2400389377631</v>
       </c>
       <c r="T25" t="n">
         <v>260.2400389377631</v>
@@ -6183,16 +6183,16 @@
         <v>260.2400389377631</v>
       </c>
       <c r="V25" t="n">
+        <v>260.2400389377631</v>
+      </c>
+      <c r="W25" t="n">
         <v>175.7245677316826</v>
       </c>
-      <c r="W25" t="n">
-        <v>91.20909652560206</v>
-      </c>
       <c r="X25" t="n">
-        <v>6.693625319521575</v>
+        <v>175.7245677316826</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.693625319521575</v>
+        <v>175.7245677316826</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>175.7245677316826</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="C26" t="n">
-        <v>91.20909652560206</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="D26" t="n">
-        <v>91.20909652560206</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="E26" t="n">
-        <v>91.20909652560206</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="F26" t="n">
-        <v>91.20909652560206</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="G26" t="n">
-        <v>91.20909652560206</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="H26" t="n">
         <v>6.693625319521575</v>
@@ -6226,7 +6226,7 @@
         <v>6.693625319521575</v>
       </c>
       <c r="J26" t="n">
-        <v>89.52723864860106</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="K26" t="n">
         <v>89.52723864860106</v>
@@ -6241,37 +6241,37 @@
         <v>263.1766718926833</v>
       </c>
       <c r="O26" t="n">
-        <v>293.1090224510352</v>
+        <v>334.6812659760787</v>
       </c>
       <c r="P26" t="n">
-        <v>293.1090224510352</v>
+        <v>334.6812659760787</v>
       </c>
       <c r="Q26" t="n">
         <v>334.6812659760787</v>
       </c>
       <c r="R26" t="n">
-        <v>281.3364385843343</v>
+        <v>334.6812659760787</v>
       </c>
       <c r="S26" t="n">
-        <v>281.3364385843343</v>
+        <v>250.1657947699983</v>
       </c>
       <c r="T26" t="n">
-        <v>281.3364385843343</v>
+        <v>250.1657947699983</v>
       </c>
       <c r="U26" t="n">
-        <v>260.2400389377631</v>
+        <v>250.1657947699983</v>
       </c>
       <c r="V26" t="n">
-        <v>260.2400389377631</v>
+        <v>175.7245677316826</v>
       </c>
       <c r="W26" t="n">
-        <v>260.2400389377631</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="X26" t="n">
-        <v>175.7245677316826</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="Y26" t="n">
-        <v>175.7245677316826</v>
+        <v>6.693625319521575</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>91.20909652560206</v>
+        <v>81.13485235783727</v>
       </c>
       <c r="C27" t="n">
-        <v>91.20909652560206</v>
+        <v>81.13485235783727</v>
       </c>
       <c r="D27" t="n">
-        <v>91.20909652560206</v>
+        <v>81.13485235783727</v>
       </c>
       <c r="E27" t="n">
-        <v>91.20909652560206</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="F27" t="n">
-        <v>91.20909652560206</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="G27" t="n">
-        <v>91.20909652560206</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="H27" t="n">
         <v>6.693625319521575</v>
@@ -6308,19 +6308,19 @@
         <v>6.693625319521575</v>
       </c>
       <c r="K27" t="n">
-        <v>6.693625319521575</v>
+        <v>67.44308193120139</v>
       </c>
       <c r="L27" t="n">
-        <v>89.52723864860106</v>
+        <v>107.979245527106</v>
       </c>
       <c r="M27" t="n">
-        <v>172.3608519776805</v>
+        <v>174.6399046484773</v>
       </c>
       <c r="N27" t="n">
-        <v>255.19446530676</v>
+        <v>257.4735179775568</v>
       </c>
       <c r="O27" t="n">
-        <v>308.751243444255</v>
+        <v>311.0302961150517</v>
       </c>
       <c r="P27" t="n">
         <v>334.6812659760787</v>
@@ -6329,28 +6329,28 @@
         <v>334.6812659760787</v>
       </c>
       <c r="R27" t="n">
-        <v>285.3583920339291</v>
+        <v>334.6812659760787</v>
       </c>
       <c r="S27" t="n">
-        <v>200.8429208278486</v>
+        <v>334.6812659760787</v>
       </c>
       <c r="T27" t="n">
-        <v>200.8429208278486</v>
+        <v>334.6812659760787</v>
       </c>
       <c r="U27" t="n">
-        <v>175.7245677316826</v>
+        <v>250.1657947699983</v>
       </c>
       <c r="V27" t="n">
-        <v>175.7245677316826</v>
+        <v>165.6503235639178</v>
       </c>
       <c r="W27" t="n">
-        <v>175.7245677316826</v>
+        <v>81.13485235783727</v>
       </c>
       <c r="X27" t="n">
-        <v>175.7245677316826</v>
+        <v>81.13485235783727</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.7245677316826</v>
+        <v>81.13485235783727</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.20909652560206</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="C28" t="n">
         <v>6.693625319521575</v>
@@ -6393,37 +6393,37 @@
         <v>6.693625319521575</v>
       </c>
       <c r="M28" t="n">
-        <v>88.72149818060471</v>
+        <v>89.52723864860106</v>
       </c>
       <c r="N28" t="n">
-        <v>171.5551115096842</v>
+        <v>172.3608519776805</v>
       </c>
       <c r="O28" t="n">
-        <v>254.3887248387637</v>
+        <v>255.19446530676</v>
       </c>
       <c r="P28" t="n">
         <v>334.6812659760787</v>
       </c>
       <c r="Q28" t="n">
-        <v>334.6812659760787</v>
+        <v>306.2712194855557</v>
       </c>
       <c r="R28" t="n">
-        <v>334.6812659760787</v>
+        <v>260.2400389377631</v>
       </c>
       <c r="S28" t="n">
-        <v>334.6812659760787</v>
+        <v>260.2400389377631</v>
       </c>
       <c r="T28" t="n">
-        <v>334.6812659760787</v>
+        <v>260.2400389377631</v>
       </c>
       <c r="U28" t="n">
-        <v>334.6812659760787</v>
+        <v>175.7245677316826</v>
       </c>
       <c r="V28" t="n">
-        <v>260.2400389377631</v>
+        <v>175.7245677316826</v>
       </c>
       <c r="W28" t="n">
-        <v>175.7245677316826</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="X28" t="n">
         <v>91.20909652560206</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>175.7245677316826</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="C29" t="n">
-        <v>175.7245677316826</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="D29" t="n">
-        <v>175.7245677316826</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="E29" t="n">
-        <v>175.7245677316826</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="F29" t="n">
-        <v>91.20909652560206</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="G29" t="n">
         <v>6.693625319521575</v>
@@ -6472,43 +6472,43 @@
         <v>14.67583190544489</v>
       </c>
       <c r="M29" t="n">
-        <v>97.50944523452438</v>
+        <v>55.22701218293849</v>
       </c>
       <c r="N29" t="n">
-        <v>180.3430585636038</v>
+        <v>101.0481613311086</v>
       </c>
       <c r="O29" t="n">
-        <v>251.8476526469993</v>
+        <v>183.8817746601881</v>
       </c>
       <c r="P29" t="n">
-        <v>334.6812659760787</v>
+        <v>266.7153879892675</v>
       </c>
       <c r="Q29" t="n">
         <v>334.6812659760787</v>
       </c>
       <c r="R29" t="n">
-        <v>334.6812659760787</v>
+        <v>281.3364385843343</v>
       </c>
       <c r="S29" t="n">
-        <v>334.6812659760787</v>
+        <v>196.8209673782538</v>
       </c>
       <c r="T29" t="n">
-        <v>250.1657947699983</v>
+        <v>196.8209673782538</v>
       </c>
       <c r="U29" t="n">
-        <v>175.7245677316826</v>
+        <v>196.8209673782538</v>
       </c>
       <c r="V29" t="n">
-        <v>175.7245677316826</v>
+        <v>112.3054961721733</v>
       </c>
       <c r="W29" t="n">
-        <v>175.7245677316826</v>
+        <v>27.79002496609283</v>
       </c>
       <c r="X29" t="n">
-        <v>175.7245677316826</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="Y29" t="n">
-        <v>175.7245677316826</v>
+        <v>6.693625319521575</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>116.3274496217682</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="C30" t="n">
-        <v>116.3274496217682</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="D30" t="n">
-        <v>116.3274496217682</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="E30" t="n">
-        <v>116.3274496217682</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="F30" t="n">
         <v>91.20909652560206</v>
       </c>
       <c r="G30" t="n">
-        <v>91.20909652560206</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="H30" t="n">
         <v>6.693625319521575</v>
@@ -6542,52 +6542,52 @@
         <v>6.693625319521575</v>
       </c>
       <c r="J30" t="n">
-        <v>67.44308193120139</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="K30" t="n">
-        <v>67.44308193120139</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="L30" t="n">
-        <v>107.979245527106</v>
+        <v>47.22978891542623</v>
       </c>
       <c r="M30" t="n">
-        <v>174.6399046484773</v>
+        <v>113.8904480367975</v>
       </c>
       <c r="N30" t="n">
-        <v>257.4735179775568</v>
+        <v>196.724061365877</v>
       </c>
       <c r="O30" t="n">
-        <v>311.0302961150517</v>
+        <v>250.2808395033719</v>
       </c>
       <c r="P30" t="n">
-        <v>334.6812659760787</v>
+        <v>273.9318093643989</v>
       </c>
       <c r="Q30" t="n">
         <v>334.6812659760787</v>
       </c>
       <c r="R30" t="n">
-        <v>285.3583920339291</v>
+        <v>334.6812659760787</v>
       </c>
       <c r="S30" t="n">
-        <v>285.3583920339291</v>
+        <v>334.6812659760787</v>
       </c>
       <c r="T30" t="n">
-        <v>285.3583920339291</v>
+        <v>334.6812659760787</v>
       </c>
       <c r="U30" t="n">
-        <v>200.8429208278486</v>
+        <v>250.1657947699983</v>
       </c>
       <c r="V30" t="n">
-        <v>200.8429208278486</v>
+        <v>250.1657947699983</v>
       </c>
       <c r="W30" t="n">
-        <v>116.3274496217682</v>
+        <v>165.6503235639178</v>
       </c>
       <c r="X30" t="n">
-        <v>116.3274496217682</v>
+        <v>165.6503235639178</v>
       </c>
       <c r="Y30" t="n">
-        <v>116.3274496217682</v>
+        <v>91.20909652560206</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>165.6503235639178</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="C31" t="n">
-        <v>165.6503235639178</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="D31" t="n">
-        <v>81.13485235783727</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="E31" t="n">
-        <v>81.13485235783727</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="F31" t="n">
-        <v>81.13485235783727</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="G31" t="n">
-        <v>81.13485235783727</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="H31" t="n">
         <v>6.693625319521575</v>
@@ -6627,16 +6627,16 @@
         <v>6.693625319521575</v>
       </c>
       <c r="L31" t="n">
-        <v>86.18042598884033</v>
+        <v>89.52723864860106</v>
       </c>
       <c r="M31" t="n">
-        <v>169.0140393179198</v>
+        <v>172.3608519776805</v>
       </c>
       <c r="N31" t="n">
-        <v>251.8476526469993</v>
+        <v>254.3887248387637</v>
       </c>
       <c r="O31" t="n">
-        <v>334.6812659760787</v>
+        <v>254.3887248387637</v>
       </c>
       <c r="P31" t="n">
         <v>334.6812659760787</v>
@@ -6645,28 +6645,28 @@
         <v>334.6812659760787</v>
       </c>
       <c r="R31" t="n">
-        <v>334.6812659760787</v>
+        <v>250.1657947699983</v>
       </c>
       <c r="S31" t="n">
         <v>250.1657947699983</v>
       </c>
       <c r="T31" t="n">
-        <v>165.6503235639178</v>
+        <v>250.1657947699983</v>
       </c>
       <c r="U31" t="n">
-        <v>165.6503235639178</v>
+        <v>250.1657947699983</v>
       </c>
       <c r="V31" t="n">
         <v>165.6503235639178</v>
       </c>
       <c r="W31" t="n">
-        <v>165.6503235639178</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="X31" t="n">
-        <v>165.6503235639178</v>
+        <v>91.20909652560206</v>
       </c>
       <c r="Y31" t="n">
-        <v>165.6503235639178</v>
+        <v>6.693625319521575</v>
       </c>
     </row>
     <row r="32">
@@ -6724,19 +6724,19 @@
         <v>334.6812659760787</v>
       </c>
       <c r="R32" t="n">
-        <v>281.3364385843343</v>
+        <v>334.6812659760787</v>
       </c>
       <c r="S32" t="n">
-        <v>281.3364385843343</v>
+        <v>334.6812659760787</v>
       </c>
       <c r="T32" t="n">
-        <v>281.3364385843343</v>
+        <v>334.6812659760787</v>
       </c>
       <c r="U32" t="n">
-        <v>281.3364385843343</v>
+        <v>260.2400389377631</v>
       </c>
       <c r="V32" t="n">
-        <v>281.3364385843343</v>
+        <v>260.2400389377631</v>
       </c>
       <c r="W32" t="n">
         <v>260.2400389377631</v>
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.693625319521575</v>
+        <v>31.81197841568766</v>
       </c>
       <c r="C33" t="n">
         <v>6.693625319521575</v>
@@ -6779,7 +6779,7 @@
         <v>6.693625319521575</v>
       </c>
       <c r="J33" t="n">
-        <v>6.693625319521575</v>
+        <v>67.44308193120139</v>
       </c>
       <c r="K33" t="n">
         <v>67.44308193120139</v>
@@ -6809,13 +6809,13 @@
         <v>200.8429208278486</v>
       </c>
       <c r="T33" t="n">
+        <v>200.8429208278486</v>
+      </c>
+      <c r="U33" t="n">
+        <v>200.8429208278486</v>
+      </c>
+      <c r="V33" t="n">
         <v>116.3274496217682</v>
-      </c>
-      <c r="U33" t="n">
-        <v>31.81197841568766</v>
-      </c>
-      <c r="V33" t="n">
-        <v>31.81197841568766</v>
       </c>
       <c r="W33" t="n">
         <v>31.81197841568766</v>
@@ -6824,7 +6824,7 @@
         <v>31.81197841568766</v>
       </c>
       <c r="Y33" t="n">
-        <v>6.693625319521575</v>
+        <v>31.81197841568766</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>250.1657947699983</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="C34" t="n">
-        <v>250.1657947699983</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="D34" t="n">
-        <v>220.5309728892704</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="E34" t="n">
-        <v>136.0155016831899</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="F34" t="n">
-        <v>136.0155016831899</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="G34" t="n">
-        <v>51.50003047710939</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="H34" t="n">
-        <v>51.50003047710939</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="I34" t="n">
-        <v>51.50003047710939</v>
+        <v>6.693625319521575</v>
       </c>
       <c r="J34" t="n">
         <v>6.693625319521575</v>
@@ -6867,13 +6867,13 @@
         <v>147.1986383888725</v>
       </c>
       <c r="M34" t="n">
-        <v>230.032251717952</v>
+        <v>171.5551115096842</v>
       </c>
       <c r="N34" t="n">
-        <v>312.8658650470314</v>
+        <v>254.3887248387637</v>
       </c>
       <c r="O34" t="n">
-        <v>334.6812659760787</v>
+        <v>254.3887248387637</v>
       </c>
       <c r="P34" t="n">
         <v>334.6812659760787</v>
@@ -6885,25 +6885,25 @@
         <v>334.6812659760787</v>
       </c>
       <c r="S34" t="n">
-        <v>334.6812659760787</v>
+        <v>250.1657947699983</v>
       </c>
       <c r="T34" t="n">
-        <v>334.6812659760787</v>
+        <v>165.6503235639178</v>
       </c>
       <c r="U34" t="n">
-        <v>334.6812659760787</v>
+        <v>165.6503235639178</v>
       </c>
       <c r="V34" t="n">
-        <v>334.6812659760787</v>
+        <v>165.6503235639178</v>
       </c>
       <c r="W34" t="n">
-        <v>334.6812659760787</v>
+        <v>165.6503235639178</v>
       </c>
       <c r="X34" t="n">
-        <v>334.6812659760787</v>
+        <v>81.13485235783727</v>
       </c>
       <c r="Y34" t="n">
-        <v>250.1657947699983</v>
+        <v>6.693625319521575</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>66.16121492903531</v>
+        <v>5.508736666700763</v>
       </c>
       <c r="C35" t="n">
-        <v>66.16121492903531</v>
+        <v>5.508736666700763</v>
       </c>
       <c r="D35" t="n">
-        <v>66.16121492903531</v>
+        <v>5.508736666700763</v>
       </c>
       <c r="E35" t="n">
-        <v>4.855419034821716</v>
+        <v>5.508736666700763</v>
       </c>
       <c r="F35" t="n">
-        <v>4.855419034821716</v>
+        <v>5.508736666700763</v>
       </c>
       <c r="G35" t="n">
-        <v>4.855419034821716</v>
+        <v>5.508736666700763</v>
       </c>
       <c r="H35" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="I35" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="J35" t="n">
-        <v>28.24479461766132</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="K35" t="n">
-        <v>88.33060517358005</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="L35" t="n">
-        <v>96.31281175950336</v>
+        <v>62.51352007332979</v>
       </c>
       <c r="M35" t="n">
-        <v>136.863992036997</v>
+        <v>122.5993306292487</v>
       </c>
       <c r="N35" t="n">
-        <v>182.6851411851671</v>
+        <v>182.6851411851676</v>
       </c>
       <c r="O35" t="n">
-        <v>242.7709517410858</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="P35" t="n">
-        <v>242.7709517410858</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="Q35" t="n">
-        <v>242.7709517410858</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="R35" t="n">
-        <v>242.7709517410858</v>
+        <v>189.426124349342</v>
       </c>
       <c r="S35" t="n">
-        <v>242.7709517410858</v>
+        <v>189.426124349342</v>
       </c>
       <c r="T35" t="n">
-        <v>181.4651558468722</v>
+        <v>128.1203284551283</v>
       </c>
       <c r="U35" t="n">
-        <v>181.4651558468722</v>
+        <v>128.1203284551283</v>
       </c>
       <c r="V35" t="n">
-        <v>181.4651558468722</v>
+        <v>66.81453256091453</v>
       </c>
       <c r="W35" t="n">
-        <v>181.4651558468722</v>
+        <v>5.508736666700763</v>
       </c>
       <c r="X35" t="n">
-        <v>181.4651558468722</v>
+        <v>5.508736666700763</v>
       </c>
       <c r="Y35" t="n">
-        <v>127.4670108232489</v>
+        <v>5.508736666700763</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="C36" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="D36" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="E36" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="F36" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="G36" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="H36" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="I36" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="J36" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="K36" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="L36" t="n">
-        <v>45.39158263072635</v>
+        <v>45.39158263072639</v>
       </c>
       <c r="M36" t="n">
-        <v>105.4773931866451</v>
+        <v>105.4773931866453</v>
       </c>
       <c r="N36" t="n">
-        <v>165.5632037425638</v>
+        <v>165.5632037425642</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1199818800588</v>
+        <v>219.1199818800595</v>
       </c>
       <c r="P36" t="n">
-        <v>242.7709517410858</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="Q36" t="n">
-        <v>242.7709517410858</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="R36" t="n">
-        <v>242.7709517410858</v>
+        <v>193.4480777989369</v>
       </c>
       <c r="S36" t="n">
-        <v>242.7709517410858</v>
+        <v>132.1422819047231</v>
       </c>
       <c r="T36" t="n">
-        <v>242.7709517410858</v>
+        <v>70.83648601050936</v>
       </c>
       <c r="U36" t="n">
-        <v>188.7728067174625</v>
+        <v>66.16121492903549</v>
       </c>
       <c r="V36" t="n">
-        <v>127.4670108232489</v>
+        <v>66.16121492903549</v>
       </c>
       <c r="W36" t="n">
-        <v>66.16121492903531</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="X36" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="Y36" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.4651558468722</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="C37" t="n">
-        <v>120.1593599526586</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="D37" t="n">
-        <v>58.85356405844502</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="E37" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="F37" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="G37" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="H37" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="I37" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="J37" t="n">
-        <v>4.855419034821716</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="K37" t="n">
-        <v>62.52681877509315</v>
+        <v>62.52681877509317</v>
       </c>
       <c r="L37" t="n">
-        <v>122.5993306292483</v>
+        <v>122.6126293310121</v>
       </c>
       <c r="M37" t="n">
-        <v>182.6851411851671</v>
+        <v>122.6126293310121</v>
       </c>
       <c r="N37" t="n">
-        <v>242.7709517410858</v>
+        <v>182.6851411851676</v>
       </c>
       <c r="O37" t="n">
-        <v>242.7709517410858</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="P37" t="n">
-        <v>242.7709517410858</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="Q37" t="n">
-        <v>242.7709517410858</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="R37" t="n">
-        <v>242.7709517410858</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="S37" t="n">
-        <v>242.7709517410858</v>
+        <v>181.4651558468727</v>
       </c>
       <c r="T37" t="n">
-        <v>242.7709517410858</v>
+        <v>120.159359952659</v>
       </c>
       <c r="U37" t="n">
-        <v>242.7709517410858</v>
+        <v>120.159359952659</v>
       </c>
       <c r="V37" t="n">
-        <v>242.7709517410858</v>
+        <v>58.85356405844521</v>
       </c>
       <c r="W37" t="n">
-        <v>181.4651558468722</v>
+        <v>58.85356405844521</v>
       </c>
       <c r="X37" t="n">
-        <v>181.4651558468722</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="Y37" t="n">
-        <v>181.4651558468722</v>
+        <v>4.85541903482173</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>58.85356405844508</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="C38" t="n">
-        <v>58.85356405844508</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="D38" t="n">
-        <v>4.855419034821722</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="E38" t="n">
-        <v>4.855419034821722</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="F38" t="n">
-        <v>4.855419034821722</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="G38" t="n">
-        <v>4.855419034821722</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="H38" t="n">
-        <v>4.855419034821722</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="I38" t="n">
-        <v>4.855419034821722</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="J38" t="n">
-        <v>4.855419034821722</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="K38" t="n">
-        <v>4.855419034821722</v>
+        <v>6.294650645233055</v>
       </c>
       <c r="L38" t="n">
-        <v>62.51352007332967</v>
+        <v>66.38046120115196</v>
       </c>
       <c r="M38" t="n">
-        <v>122.5993306292485</v>
+        <v>106.9316414786456</v>
       </c>
       <c r="N38" t="n">
-        <v>182.6851411851673</v>
+        <v>152.7527906268157</v>
       </c>
       <c r="O38" t="n">
-        <v>242.7709517410861</v>
+        <v>182.6851411851676</v>
       </c>
       <c r="P38" t="n">
-        <v>242.7709517410861</v>
+        <v>182.6851411851676</v>
       </c>
       <c r="Q38" t="n">
-        <v>242.7709517410861</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="R38" t="n">
-        <v>242.7709517410861</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="S38" t="n">
-        <v>242.7709517410861</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="T38" t="n">
-        <v>242.7709517410861</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="U38" t="n">
-        <v>181.4651558468724</v>
+        <v>181.4651558468727</v>
       </c>
       <c r="V38" t="n">
-        <v>181.4651558468724</v>
+        <v>120.159359952659</v>
       </c>
       <c r="W38" t="n">
-        <v>120.1593599526587</v>
+        <v>58.85356405844521</v>
       </c>
       <c r="X38" t="n">
-        <v>120.1593599526587</v>
+        <v>58.85356405844521</v>
       </c>
       <c r="Y38" t="n">
-        <v>58.85356405844508</v>
+        <v>4.85541903482173</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>132.1422819047228</v>
+        <v>58.85356405844521</v>
       </c>
       <c r="C39" t="n">
-        <v>132.1422819047228</v>
+        <v>58.85356405844521</v>
       </c>
       <c r="D39" t="n">
-        <v>127.4670108232491</v>
+        <v>58.85356405844521</v>
       </c>
       <c r="E39" t="n">
-        <v>66.1612149290354</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="F39" t="n">
-        <v>66.1612149290354</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="G39" t="n">
-        <v>4.855419034821722</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="H39" t="n">
-        <v>4.855419034821722</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="I39" t="n">
-        <v>4.855419034821722</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="J39" t="n">
-        <v>4.855419034821722</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="K39" t="n">
-        <v>4.855419034821722</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="L39" t="n">
-        <v>45.39158263072646</v>
+        <v>45.39158263072639</v>
       </c>
       <c r="M39" t="n">
         <v>105.4773931866453</v>
       </c>
       <c r="N39" t="n">
-        <v>165.5632037425641</v>
+        <v>165.5632037425642</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1199818800591</v>
+        <v>219.1199818800595</v>
       </c>
       <c r="P39" t="n">
-        <v>242.7709517410861</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="Q39" t="n">
-        <v>242.7709517410861</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="R39" t="n">
-        <v>193.4480777989365</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="S39" t="n">
-        <v>193.4480777989365</v>
+        <v>181.4651558468727</v>
       </c>
       <c r="T39" t="n">
-        <v>193.4480777989365</v>
+        <v>181.4651558468727</v>
       </c>
       <c r="U39" t="n">
-        <v>193.4480777989365</v>
+        <v>181.4651558468727</v>
       </c>
       <c r="V39" t="n">
-        <v>193.4480777989365</v>
+        <v>181.4651558468727</v>
       </c>
       <c r="W39" t="n">
-        <v>132.1422819047228</v>
+        <v>181.4651558468727</v>
       </c>
       <c r="X39" t="n">
-        <v>132.1422819047228</v>
+        <v>120.159359952659</v>
       </c>
       <c r="Y39" t="n">
-        <v>132.1422819047228</v>
+        <v>58.85356405844521</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>120.1593599526587</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="C40" t="n">
-        <v>58.85356405844508</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="D40" t="n">
-        <v>49.66182419240953</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="E40" t="n">
-        <v>49.66182419240953</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="F40" t="n">
-        <v>49.66182419240953</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="G40" t="n">
-        <v>49.66182419240953</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="H40" t="n">
-        <v>49.66182419240953</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="I40" t="n">
-        <v>49.66182419240953</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="J40" t="n">
-        <v>4.855419034821722</v>
+        <v>4.85541903482173</v>
       </c>
       <c r="K40" t="n">
-        <v>4.855419034821722</v>
+        <v>62.52681877509317</v>
       </c>
       <c r="L40" t="n">
-        <v>64.94122959074053</v>
+        <v>62.52681877509317</v>
       </c>
       <c r="M40" t="n">
-        <v>125.0270401466593</v>
+        <v>122.5993306292487</v>
       </c>
       <c r="N40" t="n">
-        <v>182.6851411851673</v>
+        <v>182.6851411851676</v>
       </c>
       <c r="O40" t="n">
-        <v>182.6851411851673</v>
+        <v>182.6851411851676</v>
       </c>
       <c r="P40" t="n">
-        <v>242.7709517410861</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="Q40" t="n">
-        <v>242.7709517410861</v>
+        <v>242.7709517410865</v>
       </c>
       <c r="R40" t="n">
-        <v>242.7709517410861</v>
+        <v>188.772806717463</v>
       </c>
       <c r="S40" t="n">
-        <v>242.7709517410861</v>
+        <v>127.4670108232493</v>
       </c>
       <c r="T40" t="n">
-        <v>242.7709517410861</v>
+        <v>66.16121492903549</v>
       </c>
       <c r="U40" t="n">
-        <v>242.7709517410861</v>
+        <v>66.16121492903549</v>
       </c>
       <c r="V40" t="n">
-        <v>181.4651558468724</v>
+        <v>66.16121492903549</v>
       </c>
       <c r="W40" t="n">
-        <v>181.4651558468724</v>
+        <v>66.16121492903549</v>
       </c>
       <c r="X40" t="n">
-        <v>181.4651558468724</v>
+        <v>66.16121492903549</v>
       </c>
       <c r="Y40" t="n">
-        <v>181.4651558468724</v>
+        <v>4.85541903482173</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>44.88144391617522</v>
+        <v>138.384452074874</v>
       </c>
       <c r="C41" t="n">
-        <v>44.88144391617522</v>
+        <v>91.63294799552466</v>
       </c>
       <c r="D41" t="n">
-        <v>44.88144391617522</v>
+        <v>91.63294799552466</v>
       </c>
       <c r="E41" t="n">
-        <v>44.88144391617522</v>
+        <v>91.63294799552466</v>
       </c>
       <c r="F41" t="n">
-        <v>44.88144391617522</v>
+        <v>91.63294799552466</v>
       </c>
       <c r="G41" t="n">
-        <v>44.88144391617522</v>
+        <v>91.63294799552466</v>
       </c>
       <c r="H41" t="n">
-        <v>44.88144391617522</v>
+        <v>44.88144391617534</v>
       </c>
       <c r="I41" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="J41" t="n">
-        <v>3.702719123084457</v>
+        <v>44.96027099446606</v>
       </c>
       <c r="K41" t="n">
-        <v>3.702719123084457</v>
+        <v>44.96027099446606</v>
       </c>
       <c r="L41" t="n">
-        <v>11.6849257090078</v>
+        <v>52.94247758038937</v>
       </c>
       <c r="M41" t="n">
-        <v>52.23610598650146</v>
+        <v>93.49365785788297</v>
       </c>
       <c r="N41" t="n">
-        <v>98.05725513467161</v>
+        <v>139.3148070060531</v>
       </c>
       <c r="O41" t="n">
-        <v>139.3148070060527</v>
+        <v>185.1359561542233</v>
       </c>
       <c r="P41" t="n">
-        <v>139.3148070060527</v>
+        <v>185.1359561542233</v>
       </c>
       <c r="Q41" t="n">
-        <v>185.1359561542229</v>
+        <v>185.1359561542233</v>
       </c>
       <c r="R41" t="n">
-        <v>185.1359561542229</v>
+        <v>138.384452074874</v>
       </c>
       <c r="S41" t="n">
-        <v>138.3844520748736</v>
+        <v>138.384452074874</v>
       </c>
       <c r="T41" t="n">
-        <v>138.3844520748736</v>
+        <v>138.384452074874</v>
       </c>
       <c r="U41" t="n">
-        <v>91.63294799552443</v>
+        <v>138.384452074874</v>
       </c>
       <c r="V41" t="n">
-        <v>91.63294799552443</v>
+        <v>138.384452074874</v>
       </c>
       <c r="W41" t="n">
-        <v>91.63294799552443</v>
+        <v>138.384452074874</v>
       </c>
       <c r="X41" t="n">
-        <v>91.63294799552443</v>
+        <v>138.384452074874</v>
       </c>
       <c r="Y41" t="n">
-        <v>91.63294799552443</v>
+        <v>138.384452074874</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.702719123084457</v>
+        <v>50.45422320243379</v>
       </c>
       <c r="C42" t="n">
-        <v>3.702719123084457</v>
+        <v>50.45422320243379</v>
       </c>
       <c r="D42" t="n">
-        <v>3.702719123084457</v>
+        <v>50.45422320243379</v>
       </c>
       <c r="E42" t="n">
-        <v>3.702719123084457</v>
+        <v>50.45422320243379</v>
       </c>
       <c r="F42" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="G42" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="H42" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="I42" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="J42" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="K42" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="L42" t="n">
-        <v>24.02153884868539</v>
+        <v>44.23888271898912</v>
       </c>
       <c r="M42" t="n">
-        <v>69.84268799685555</v>
+        <v>69.8426879968558</v>
       </c>
       <c r="N42" t="n">
-        <v>115.6638371450257</v>
+        <v>115.6638371450261</v>
       </c>
       <c r="O42" t="n">
-        <v>161.4849862931958</v>
+        <v>161.4849862931963</v>
       </c>
       <c r="P42" t="n">
-        <v>185.1359561542229</v>
+        <v>185.1359561542233</v>
       </c>
       <c r="Q42" t="n">
-        <v>185.1359561542229</v>
+        <v>185.1359561542233</v>
       </c>
       <c r="R42" t="n">
-        <v>185.1359561542229</v>
+        <v>185.1359561542233</v>
       </c>
       <c r="S42" t="n">
-        <v>143.9572313611321</v>
+        <v>185.1359561542233</v>
       </c>
       <c r="T42" t="n">
-        <v>97.20572728178288</v>
+        <v>138.384452074874</v>
       </c>
       <c r="U42" t="n">
-        <v>97.20572728178288</v>
+        <v>138.384452074874</v>
       </c>
       <c r="V42" t="n">
-        <v>97.20572728178288</v>
+        <v>91.63294799552466</v>
       </c>
       <c r="W42" t="n">
-        <v>50.45422320243367</v>
+        <v>50.45422320243379</v>
       </c>
       <c r="X42" t="n">
-        <v>3.702719123084457</v>
+        <v>50.45422320243379</v>
       </c>
       <c r="Y42" t="n">
-        <v>3.702719123084457</v>
+        <v>50.45422320243379</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.3844520748736</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="C43" t="n">
-        <v>138.3844520748736</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="D43" t="n">
-        <v>91.63294799552443</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="E43" t="n">
-        <v>91.63294799552443</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="F43" t="n">
-        <v>44.88144391617522</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="G43" t="n">
-        <v>44.88144391617522</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="H43" t="n">
-        <v>44.88144391617522</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="I43" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="J43" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="K43" t="n">
-        <v>49.52386827125461</v>
+        <v>47.67250870971252</v>
       </c>
       <c r="L43" t="n">
-        <v>95.34501741942478</v>
+        <v>47.67250870971252</v>
       </c>
       <c r="M43" t="n">
-        <v>139.3148070060527</v>
+        <v>93.49365785788279</v>
       </c>
       <c r="N43" t="n">
-        <v>139.3148070060527</v>
+        <v>139.3148070060531</v>
       </c>
       <c r="O43" t="n">
-        <v>185.1359561542229</v>
+        <v>139.3148070060531</v>
       </c>
       <c r="P43" t="n">
-        <v>185.1359561542229</v>
+        <v>185.1359561542233</v>
       </c>
       <c r="Q43" t="n">
-        <v>185.1359561542229</v>
+        <v>185.1359561542233</v>
       </c>
       <c r="R43" t="n">
-        <v>138.3844520748736</v>
+        <v>138.384452074874</v>
       </c>
       <c r="S43" t="n">
-        <v>138.3844520748736</v>
+        <v>138.384452074874</v>
       </c>
       <c r="T43" t="n">
-        <v>138.3844520748736</v>
+        <v>91.63294799552466</v>
       </c>
       <c r="U43" t="n">
-        <v>138.3844520748736</v>
+        <v>91.63294799552466</v>
       </c>
       <c r="V43" t="n">
-        <v>138.3844520748736</v>
+        <v>50.45422320243379</v>
       </c>
       <c r="W43" t="n">
-        <v>138.3844520748736</v>
+        <v>50.45422320243379</v>
       </c>
       <c r="X43" t="n">
-        <v>138.3844520748736</v>
+        <v>3.702719123084467</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.3844520748736</v>
+        <v>3.702719123084467</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.45422320243367</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="C44" t="n">
-        <v>50.45422320243367</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="D44" t="n">
-        <v>3.702719123084457</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="E44" t="n">
-        <v>3.702719123084457</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="F44" t="n">
-        <v>3.702719123084457</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="G44" t="n">
-        <v>3.702719123084457</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="H44" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="I44" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="J44" t="n">
-        <v>49.52386827125461</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="K44" t="n">
-        <v>60.84906958428373</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="L44" t="n">
-        <v>68.83127617020706</v>
+        <v>49.52386827125456</v>
       </c>
       <c r="M44" t="n">
-        <v>109.3824564477007</v>
+        <v>95.34501741942466</v>
       </c>
       <c r="N44" t="n">
-        <v>155.2036055958709</v>
+        <v>141.1661665675948</v>
       </c>
       <c r="O44" t="n">
-        <v>185.1359561542229</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="P44" t="n">
-        <v>185.1359561542229</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="Q44" t="n">
-        <v>185.1359561542229</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="R44" t="n">
-        <v>143.9572313611321</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="S44" t="n">
-        <v>143.9572313611321</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="T44" t="n">
-        <v>97.20572728178288</v>
+        <v>138.3844520748735</v>
       </c>
       <c r="U44" t="n">
-        <v>50.45422320243367</v>
+        <v>91.63294799552432</v>
       </c>
       <c r="V44" t="n">
-        <v>50.45422320243367</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="W44" t="n">
-        <v>50.45422320243367</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="X44" t="n">
-        <v>50.45422320243367</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.45422320243367</v>
+        <v>44.88144391617517</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>44.88144391617522</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="C45" t="n">
-        <v>44.88144391617522</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="D45" t="n">
-        <v>44.88144391617522</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="E45" t="n">
-        <v>44.88144391617522</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="F45" t="n">
-        <v>44.88144391617522</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="G45" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="H45" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="I45" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="J45" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="K45" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="L45" t="n">
         <v>44.23888271898912</v>
       </c>
       <c r="M45" t="n">
-        <v>90.06003186715927</v>
+        <v>90.06003186715921</v>
       </c>
       <c r="N45" t="n">
-        <v>115.6638371450257</v>
+        <v>135.8811810153293</v>
       </c>
       <c r="O45" t="n">
-        <v>161.4849862931958</v>
+        <v>161.4849862931956</v>
       </c>
       <c r="P45" t="n">
-        <v>185.1359561542229</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="Q45" t="n">
-        <v>185.1359561542229</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="R45" t="n">
-        <v>185.1359561542229</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="S45" t="n">
-        <v>138.3844520748736</v>
+        <v>138.3844520748735</v>
       </c>
       <c r="T45" t="n">
-        <v>91.63294799552443</v>
+        <v>138.3844520748735</v>
       </c>
       <c r="U45" t="n">
-        <v>91.63294799552443</v>
+        <v>91.63294799552432</v>
       </c>
       <c r="V45" t="n">
-        <v>91.63294799552443</v>
+        <v>91.63294799552432</v>
       </c>
       <c r="W45" t="n">
-        <v>44.88144391617522</v>
+        <v>50.45422320243361</v>
       </c>
       <c r="X45" t="n">
-        <v>44.88144391617522</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="Y45" t="n">
-        <v>44.88144391617522</v>
+        <v>3.702719123084453</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.20572728178288</v>
+        <v>91.63294799552432</v>
       </c>
       <c r="C46" t="n">
-        <v>97.20572728178288</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="D46" t="n">
-        <v>97.20572728178288</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="E46" t="n">
-        <v>97.20572728178288</v>
+        <v>44.88144391617517</v>
       </c>
       <c r="F46" t="n">
-        <v>97.20572728178288</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="G46" t="n">
-        <v>97.20572728178288</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="H46" t="n">
-        <v>50.45422320243367</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="I46" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="J46" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="K46" t="n">
-        <v>3.702719123084457</v>
+        <v>3.702719123084453</v>
       </c>
       <c r="L46" t="n">
-        <v>49.52386827125461</v>
+        <v>49.52386827125456</v>
       </c>
       <c r="M46" t="n">
-        <v>95.34501741942478</v>
+        <v>95.34501741942466</v>
       </c>
       <c r="N46" t="n">
-        <v>139.3148070060527</v>
+        <v>141.1661665675948</v>
       </c>
       <c r="O46" t="n">
-        <v>185.1359561542229</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="P46" t="n">
-        <v>185.1359561542229</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="Q46" t="n">
-        <v>185.1359561542229</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="R46" t="n">
-        <v>138.3844520748736</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="S46" t="n">
-        <v>97.20572728178288</v>
+        <v>185.1359561542226</v>
       </c>
       <c r="T46" t="n">
-        <v>97.20572728178288</v>
+        <v>138.3844520748735</v>
       </c>
       <c r="U46" t="n">
-        <v>97.20572728178288</v>
+        <v>138.3844520748735</v>
       </c>
       <c r="V46" t="n">
-        <v>97.20572728178288</v>
+        <v>138.3844520748735</v>
       </c>
       <c r="W46" t="n">
-        <v>97.20572728178288</v>
+        <v>138.3844520748735</v>
       </c>
       <c r="X46" t="n">
-        <v>97.20572728178288</v>
+        <v>138.3844520748735</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.20572728178288</v>
+        <v>138.3844520748735</v>
       </c>
     </row>
   </sheetData>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>49.90699922024115</v>
+        <v>69.40943144140525</v>
       </c>
       <c r="K11" t="n">
         <v>23.54662624491314</v>
       </c>
       <c r="L11" t="n">
-        <v>38.22115410327967</v>
+        <v>38.22115410327959</v>
       </c>
       <c r="M11" t="n">
-        <v>5.323200879471294</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>14.17923134169295</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>9.044880976572443</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>94.77381625162096</v>
+        <v>48.48982721306521</v>
       </c>
       <c r="L13" t="n">
         <v>31.84240790264144</v>
       </c>
       <c r="M13" t="n">
-        <v>30.28215953448625</v>
+        <v>76.56614857304191</v>
       </c>
       <c r="N13" t="n">
-        <v>67.90921164877355</v>
+        <v>67.90921164877348</v>
       </c>
       <c r="O13" t="n">
-        <v>86.77665389675636</v>
+        <v>86.77665389675629</v>
       </c>
       <c r="P13" t="n">
-        <v>98.31691528304404</v>
+        <v>98.31691528304395</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>49.90699922024115</v>
+        <v>69.40943144140525</v>
       </c>
       <c r="K14" t="n">
         <v>23.54662624491314</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>38.22115410327959</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>16.04929150486684</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>9.044880976572443</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.1259637463084</v>
+        <v>55.45166892673154</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9093,16 +9093,16 @@
         <v>78.1263969411971</v>
       </c>
       <c r="M16" t="n">
-        <v>76.56614857304191</v>
+        <v>30.28215953448625</v>
       </c>
       <c r="N16" t="n">
-        <v>66.03915148559955</v>
+        <v>21.62522261021782</v>
       </c>
       <c r="O16" t="n">
-        <v>40.49266485820063</v>
+        <v>86.77665389675629</v>
       </c>
       <c r="P16" t="n">
-        <v>53.90298640766225</v>
+        <v>98.31691528304395</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9172,10 +9172,10 @@
         <v>52.62990299999537</v>
       </c>
       <c r="M17" t="n">
-        <v>17.27971794041846</v>
+        <v>19.731949776187</v>
       </c>
       <c r="N17" t="n">
-        <v>14.40874889671579</v>
+        <v>11.95651706094725</v>
       </c>
       <c r="O17" t="n">
         <v>30.45804040158259</v>
@@ -9324,16 +9324,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>48.48982721306521</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>92.53514583791289</v>
+        <v>92.52171280582849</v>
       </c>
       <c r="M19" t="n">
         <v>90.97489746975771</v>
       </c>
       <c r="N19" t="n">
-        <v>79.86572870972073</v>
+        <v>21.62522261021782</v>
       </c>
       <c r="O19" t="n">
         <v>40.49266485820063</v>
@@ -9406,16 +9406,16 @@
         <v>23.54662624491314</v>
       </c>
       <c r="L20" t="n">
-        <v>39.67492340672501</v>
+        <v>52.62990299999539</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>14.40874889671579</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.453769303445441</v>
       </c>
       <c r="P20" t="n">
         <v>69.7376189118439</v>
@@ -9561,13 +9561,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7303333125681</v>
       </c>
       <c r="L22" t="n">
-        <v>31.84240790264144</v>
+        <v>92.53514583791289</v>
       </c>
       <c r="M22" t="n">
-        <v>90.9614644376733</v>
+        <v>90.97489746975771</v>
       </c>
       <c r="N22" t="n">
         <v>21.62522261021782</v>
@@ -9576,7 +9576,7 @@
         <v>101.1854027934721</v>
       </c>
       <c r="P22" t="n">
-        <v>114.5957243429337</v>
+        <v>53.90298640766225</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>49.90699922024115</v>
+        <v>133.5773157142608</v>
       </c>
       <c r="K23" t="n">
         <v>107.2169427389328</v>
       </c>
       <c r="L23" t="n">
-        <v>38.41770447319117</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>38.41770447319119</v>
       </c>
       <c r="P23" t="n">
-        <v>92.71519747059213</v>
+        <v>9.044880976572443</v>
       </c>
       <c r="Q23" t="n">
         <v>55.45166892673154</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>110.0952805441332</v>
+        <v>48.73219305758793</v>
       </c>
       <c r="K24" t="n">
-        <v>4.34681248601342</v>
+        <v>65.70989997255869</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>48.48982721306521</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>112.132105548418</v>
+        <v>115.5127243966611</v>
       </c>
       <c r="M25" t="n">
-        <v>113.9524760285059</v>
+        <v>54.88465763631626</v>
       </c>
       <c r="N25" t="n">
-        <v>105.2955391042375</v>
+        <v>21.62522261021782</v>
       </c>
       <c r="O25" t="n">
         <v>124.1629813522203</v>
       </c>
       <c r="P25" t="n">
-        <v>53.90298640766225</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>133.5773157142608</v>
+        <v>49.90699922024115</v>
       </c>
       <c r="K26" t="n">
-        <v>23.54662624491314</v>
+        <v>107.2169427389328</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>37.38632745546403</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>41.99216517681161</v>
       </c>
       <c r="P26" t="n">
         <v>9.044880976572443</v>
       </c>
       <c r="Q26" t="n">
-        <v>97.44383410354317</v>
+        <v>55.45166892673154</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9956,13 +9956,13 @@
         <v>48.73219305758793</v>
       </c>
       <c r="K27" t="n">
-        <v>4.34681248601342</v>
+        <v>65.70989997255869</v>
       </c>
       <c r="L27" t="n">
-        <v>42.72469670017659</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>16.33631738152343</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.302073404845242</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>34.4536862647213</v>
@@ -10041,7 +10041,7 @@
         <v>31.84240790264144</v>
       </c>
       <c r="M28" t="n">
-        <v>113.1385967679036</v>
+        <v>113.9524760285059</v>
       </c>
       <c r="N28" t="n">
         <v>105.2955391042375</v>
@@ -10050,7 +10050,7 @@
         <v>124.1629813522203</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>134.1926840534387</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10120,19 +10120,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>42.70952833493524</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>37.38632745546403</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>41.99216517681161</v>
+        <v>53.43561896033086</v>
       </c>
       <c r="P29" t="n">
         <v>92.71519747059213</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.45166892673154</v>
+        <v>124.1040709336116</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>110.0952805441332</v>
+        <v>48.73219305758793</v>
       </c>
       <c r="K30" t="n">
         <v>4.34681248601342</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.4536862647213</v>
+        <v>95.81677375126662</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10275,19 +10275,19 @@
         <v>48.48982721306521</v>
       </c>
       <c r="L31" t="n">
-        <v>112.132105548418</v>
+        <v>115.5127243966611</v>
       </c>
       <c r="M31" t="n">
         <v>113.9524760285059</v>
       </c>
       <c r="N31" t="n">
-        <v>105.2955391042375</v>
+        <v>104.4816598436351</v>
       </c>
       <c r="O31" t="n">
-        <v>124.1629813522203</v>
+        <v>40.49266485820063</v>
       </c>
       <c r="P31" t="n">
-        <v>53.90298640766225</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>48.73219305758793</v>
+        <v>110.0952805441332</v>
       </c>
       <c r="K33" t="n">
-        <v>65.70989997255869</v>
+        <v>4.34681248601342</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10515,16 +10515,16 @@
         <v>115.5127243966611</v>
       </c>
       <c r="M34" t="n">
-        <v>113.9524760285059</v>
+        <v>54.88465763631626</v>
       </c>
       <c r="N34" t="n">
         <v>105.2955391042375</v>
       </c>
       <c r="O34" t="n">
-        <v>62.52842337238984</v>
+        <v>40.49266485820063</v>
       </c>
       <c r="P34" t="n">
-        <v>53.90298640766225</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.53263112209933</v>
+        <v>49.90699922024115</v>
       </c>
       <c r="K35" t="n">
-        <v>84.23936418018459</v>
+        <v>23.54662624491314</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>50.17767116422702</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>19.73194977618721</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>14.40874889671596</v>
       </c>
       <c r="O35" t="n">
-        <v>30.45804040158259</v>
+        <v>30.45804040158276</v>
       </c>
       <c r="P35" t="n">
         <v>9.044880976572443</v>
@@ -10749,16 +10749,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>92.52171280582849</v>
+        <v>92.53514583791306</v>
       </c>
       <c r="M37" t="n">
-        <v>90.97489746975771</v>
+        <v>30.28215953448625</v>
       </c>
       <c r="N37" t="n">
-        <v>82.31796054548927</v>
+        <v>82.30452751340522</v>
       </c>
       <c r="O37" t="n">
-        <v>40.49266485820063</v>
+        <v>101.1854027934722</v>
       </c>
       <c r="P37" t="n">
         <v>53.90298640766225</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>49.90699922024112</v>
+        <v>49.90699922024115</v>
       </c>
       <c r="K38" t="n">
-        <v>23.54662624491311</v>
+        <v>25.00039554835892</v>
       </c>
       <c r="L38" t="n">
-        <v>50.17767116422687</v>
+        <v>52.62990299999555</v>
       </c>
       <c r="M38" t="n">
-        <v>19.73194977618704</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>14.40874889671579</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>30.45804040158265</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>9.044880976572415</v>
+        <v>9.044880976572443</v>
       </c>
       <c r="Q38" t="n">
-        <v>55.45166892673151</v>
+        <v>116.1444068620031</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>48.73219305758792</v>
+        <v>48.73219305758793</v>
       </c>
       <c r="K39" t="n">
-        <v>4.346812486013391</v>
+        <v>4.34681248601342</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.45368626472128</v>
+        <v>34.4536862647213</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>48.4898272130652</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>92.53514583791295</v>
+        <v>31.84240790264144</v>
       </c>
       <c r="M40" t="n">
-        <v>90.97489746975776</v>
+        <v>90.96146443767365</v>
       </c>
       <c r="N40" t="n">
-        <v>79.86572870972077</v>
+        <v>82.31796054548944</v>
       </c>
       <c r="O40" t="n">
-        <v>40.49266485820061</v>
+        <v>40.49266485820063</v>
       </c>
       <c r="P40" t="n">
-        <v>114.5957243429337</v>
+        <v>114.5957243429339</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>49.90699922024112</v>
+        <v>91.58129403981852</v>
       </c>
       <c r="K41" t="n">
-        <v>23.54662624491311</v>
+        <v>23.54662624491314</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>11.43959728588799</v>
+        <v>16.04929150486697</v>
       </c>
       <c r="P41" t="n">
-        <v>9.044880976572415</v>
+        <v>9.044880976572443</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.7356579652872</v>
+        <v>55.45166892673154</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>48.73219305758792</v>
+        <v>48.73219305758793</v>
       </c>
       <c r="K42" t="n">
-        <v>4.346812486013391</v>
+        <v>4.34681248601342</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.45368626472128</v>
+        <v>34.4536862647213</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>94.77381625162091</v>
+        <v>92.9037560884471</v>
       </c>
       <c r="L43" t="n">
-        <v>78.12639694119714</v>
+        <v>31.84240790264144</v>
       </c>
       <c r="M43" t="n">
-        <v>74.696088409868</v>
+        <v>76.56614857304208</v>
       </c>
       <c r="N43" t="n">
-        <v>21.6252226102178</v>
+        <v>67.90921164877365</v>
       </c>
       <c r="O43" t="n">
-        <v>86.77665389675633</v>
+        <v>40.49266485820063</v>
       </c>
       <c r="P43" t="n">
-        <v>53.90298640766224</v>
+        <v>100.1869754462181</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>96.19098825879684</v>
+        <v>49.90699922024115</v>
       </c>
       <c r="K44" t="n">
-        <v>34.98622353080111</v>
+        <v>23.54662624491314</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>38.22115410327959</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>5.323200879471216</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>14.17923134169287</v>
       </c>
       <c r="P44" t="n">
-        <v>9.044880976572415</v>
+        <v>9.044880976572443</v>
       </c>
       <c r="Q44" t="n">
-        <v>55.45166892673151</v>
+        <v>55.45166892673154</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>48.73219305758792</v>
+        <v>48.73219305758793</v>
       </c>
       <c r="K45" t="n">
-        <v>4.346812486013391</v>
+        <v>4.34681248601342</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.45368626472128</v>
+        <v>34.4536862647213</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>48.4898272130652</v>
+        <v>48.48982721306521</v>
       </c>
       <c r="L46" t="n">
-        <v>78.12639694119714</v>
+        <v>78.1263969411971</v>
       </c>
       <c r="M46" t="n">
-        <v>76.56614857304196</v>
+        <v>76.56614857304191</v>
       </c>
       <c r="N46" t="n">
-        <v>66.03915148559956</v>
+        <v>67.90921164877348</v>
       </c>
       <c r="O46" t="n">
-        <v>86.77665389675633</v>
+        <v>84.90659373358233</v>
       </c>
       <c r="P46" t="n">
-        <v>53.90298640766224</v>
+        <v>53.90298640766225</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>52.81137911782699</v>
+        <v>6.527390079271328</v>
       </c>
       <c r="S11" t="n">
-        <v>133.0440384795235</v>
+        <v>127.5269869861277</v>
       </c>
       <c r="T11" t="n">
         <v>216.3321498574616</v>
       </c>
       <c r="U11" t="n">
-        <v>204.9380554223285</v>
+        <v>204.9380554223286</v>
       </c>
       <c r="V11" t="n">
-        <v>281.4682694315792</v>
+        <v>286.9853209249751</v>
       </c>
       <c r="W11" t="n">
-        <v>302.9569796788573</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>120.2491946113117</v>
       </c>
       <c r="C12" t="n">
-        <v>126.42450994976</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23357,7 +23357,7 @@
         <v>104.2512204396815</v>
       </c>
       <c r="I12" t="n">
-        <v>60.9333463822972</v>
+        <v>20.1664088371374</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>48.82964520272813</v>
       </c>
       <c r="S12" t="n">
-        <v>110.0435109574204</v>
+        <v>156.3274999959762</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8325299349338</v>
+        <v>150.5485408963781</v>
       </c>
       <c r="U12" t="n">
         <v>225.8869936354924</v>
@@ -23399,10 +23399,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>210.9280456157597</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>159.4889961649217</v>
+        <v>159.4889961649218</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>28.12594602561786</v>
       </c>
       <c r="R13" t="n">
-        <v>99.84595245476027</v>
+        <v>105.3630039481562</v>
       </c>
       <c r="S13" t="n">
-        <v>211.9380833933517</v>
+        <v>165.6540943547961</v>
       </c>
       <c r="T13" t="n">
-        <v>178.7002535548266</v>
+        <v>178.7002535548267</v>
       </c>
       <c r="U13" t="n">
         <v>286.2812249288113</v>
       </c>
       <c r="V13" t="n">
-        <v>239.496651804286</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>240.2390092980353</v>
@@ -23503,13 +23503,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>335.6463810337061</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.7576319282316</v>
+        <v>367.4736428896759</v>
       </c>
       <c r="H14" t="n">
         <v>323.6509895238924</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.527390079271321</v>
+        <v>52.81137911782699</v>
       </c>
       <c r="S14" t="n">
-        <v>127.5269869861277</v>
+        <v>133.0440384795236</v>
       </c>
       <c r="T14" t="n">
-        <v>170.0481608189059</v>
+        <v>216.3321498574616</v>
       </c>
       <c r="U14" t="n">
         <v>251.2220444608842</v>
       </c>
       <c r="V14" t="n">
-        <v>286.9853209249751</v>
+        <v>281.4682694315792</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23582,16 +23582,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>116.8781429102411</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>98.78522335482822</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5168127918783</v>
+        <v>90.23282375332263</v>
       </c>
       <c r="H15" t="n">
-        <v>104.2512204396815</v>
+        <v>57.96723140112583</v>
       </c>
       <c r="I15" t="n">
         <v>60.9333463822972</v>
@@ -23627,16 +23627,16 @@
         <v>156.3274999959762</v>
       </c>
       <c r="T15" t="n">
-        <v>156.065592389774</v>
+        <v>196.8325299349338</v>
       </c>
       <c r="U15" t="n">
-        <v>179.6030045969368</v>
+        <v>225.8869936354924</v>
       </c>
       <c r="V15" t="n">
-        <v>186.5165981108696</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>205.4109941223639</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23655,7 +23655,7 @@
         <v>133.5479911433816</v>
       </c>
       <c r="C16" t="n">
-        <v>120.9628320600722</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,7 +23670,7 @@
         <v>167.2978981843334</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4240592761287</v>
+        <v>156.0650507956707</v>
       </c>
       <c r="I16" t="n">
         <v>134.6076337999256</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.84595245476035</v>
+        <v>146.129941493316</v>
       </c>
       <c r="S16" t="n">
-        <v>211.9380833933517</v>
+        <v>199.2970918738098</v>
       </c>
       <c r="T16" t="n">
-        <v>224.9842425933824</v>
+        <v>178.7002535548267</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2812249288113</v>
+        <v>239.9972358902556</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.0411037282091</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>353.0648939929602</v>
+        <v>413.7576319282316</v>
       </c>
       <c r="H17" t="n">
         <v>323.6509895238924</v>
@@ -23785,22 +23785,22 @@
         <v>173.8109760246834</v>
       </c>
       <c r="T17" t="n">
-        <v>162.8739862840745</v>
+        <v>155.6394119221901</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2220444608842</v>
+        <v>190.5293065256128</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>267.0595205348635</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>295.7828051440259</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>325.5452007207821</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,16 +23813,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>112.0157610530443</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>153.016562084742</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>84.37647445811243</v>
       </c>
       <c r="G18" t="n">
         <v>136.5168127918783</v>
@@ -23864,13 +23864,13 @@
         <v>95.6347620607047</v>
       </c>
       <c r="T18" t="n">
-        <v>192.2040115642749</v>
+        <v>196.8325299349338</v>
       </c>
       <c r="U18" t="n">
-        <v>165.194255700221</v>
+        <v>225.8869936354924</v>
       </c>
       <c r="V18" t="n">
-        <v>172.1078492141538</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23952,13 +23952,13 @@
         <v>191.4449053885565</v>
       </c>
       <c r="W19" t="n">
-        <v>233.0648347632039</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>165.1264897787077</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>304.5801538357361</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>346.18330780644</v>
       </c>
       <c r="G20" t="n">
         <v>413.7576319282316</v>
@@ -23989,7 +23989,7 @@
         <v>323.6509895238924</v>
       </c>
       <c r="I20" t="n">
-        <v>90.2154684960399</v>
+        <v>150.2614219757513</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>52.81137911782699</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>120.3528124512963</v>
+        <v>113.1182380894119</v>
       </c>
       <c r="T20" t="n">
         <v>216.3321498574616</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>288.5482307821416</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>325.5452007207821</v>
       </c>
     </row>
     <row r="21">
@@ -24059,13 +24059,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>84.37647445811243</v>
       </c>
       <c r="G21" t="n">
         <v>136.5168127918783</v>
       </c>
       <c r="H21" t="n">
-        <v>104.2512204396815</v>
+        <v>43.55848250441003</v>
       </c>
       <c r="I21" t="n">
         <v>60.9333463822972</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>48.82964520272813</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>95.6347620607047</v>
       </c>
       <c r="T21" t="n">
-        <v>136.1397919996624</v>
+        <v>196.8325299349338</v>
       </c>
       <c r="U21" t="n">
-        <v>165.194255700221</v>
+        <v>225.8869936354924</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>228.1720687787663</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>152.2245322039173</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>113.7886575252408</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>87.9227350829409</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24150,7 +24150,7 @@
         <v>134.6076337999256</v>
       </c>
       <c r="J22" t="n">
-        <v>44.35834110601193</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>146.129941493316</v>
       </c>
       <c r="S22" t="n">
-        <v>151.2453454580803</v>
+        <v>202.8382609259766</v>
       </c>
       <c r="T22" t="n">
-        <v>164.2915046581109</v>
+        <v>224.9842425933824</v>
       </c>
       <c r="U22" t="n">
         <v>286.2812249288113</v>
       </c>
       <c r="V22" t="n">
-        <v>191.4449053885565</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>225.8302604013195</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>165.0169174537657</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24214,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>298.2600535782421</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>340.0608171602991</v>
+        <v>413.7576319282316</v>
       </c>
       <c r="H23" t="n">
-        <v>323.6509895238924</v>
+        <v>239.9806730298727</v>
       </c>
       <c r="I23" t="n">
         <v>150.9082064313114</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>52.81137911782699</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>173.8109760246834</v>
+        <v>90.1406595306637</v>
       </c>
       <c r="T23" t="n">
-        <v>132.6618333634419</v>
+        <v>216.3321498574616</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2220444608842</v>
+        <v>167.5517279668645</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>348.8456650283635</v>
       </c>
       <c r="Y23" t="n">
-        <v>302.5676221620339</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24293,13 +24293,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>73.97476396138126</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.5168127918783</v>
+        <v>111.6496432266739</v>
       </c>
       <c r="H24" t="n">
         <v>104.2512204396815</v>
@@ -24341,16 +24341,16 @@
         <v>196.8325299349338</v>
       </c>
       <c r="U24" t="n">
-        <v>142.2166771414727</v>
+        <v>225.8869936354924</v>
       </c>
       <c r="V24" t="n">
-        <v>149.1302706554056</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>226.8278135957152</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>122.1026687094578</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>83.57650460460815</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>61.75073152891156</v>
       </c>
       <c r="G25" t="n">
         <v>167.2978981843334</v>
@@ -24411,25 +24411,25 @@
         <v>28.12594602561786</v>
       </c>
       <c r="R25" t="n">
-        <v>146.129941493316</v>
+        <v>72.4331267253835</v>
       </c>
       <c r="S25" t="n">
         <v>211.9380833933517</v>
       </c>
       <c r="T25" t="n">
-        <v>151.2874278254499</v>
+        <v>224.9842425933824</v>
       </c>
       <c r="U25" t="n">
         <v>286.2812249288113</v>
       </c>
       <c r="V25" t="n">
-        <v>168.4673268298083</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>202.8526818425713</v>
       </c>
       <c r="X25" t="n">
-        <v>142.0393388950175</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>281.6025752769879</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24460,7 +24460,7 @@
         <v>413.7576319282316</v>
       </c>
       <c r="H26" t="n">
-        <v>239.9806730298727</v>
+        <v>323.6509895238924</v>
       </c>
       <c r="I26" t="n">
         <v>150.9082064313114</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>52.81137911782699</v>
       </c>
       <c r="S26" t="n">
-        <v>173.8109760246834</v>
+        <v>90.1406595306637</v>
       </c>
       <c r="T26" t="n">
         <v>216.3321498574616</v>
       </c>
       <c r="U26" t="n">
-        <v>230.3366088107787</v>
+        <v>251.2220444608842</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>254.0554437022024</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>265.5706522233933</v>
       </c>
       <c r="X26" t="n">
-        <v>286.0607841844493</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>302.5676221620339</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>82.86286715584765</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24530,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>83.94826568746841</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24539,7 +24539,7 @@
         <v>136.5168127918783</v>
       </c>
       <c r="H27" t="n">
-        <v>20.5809039456618</v>
+        <v>104.2512204396815</v>
       </c>
       <c r="I27" t="n">
         <v>60.9333463822972</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>48.82964520272813</v>
       </c>
       <c r="S27" t="n">
-        <v>72.65718350195647</v>
+        <v>156.3274999959762</v>
       </c>
       <c r="T27" t="n">
         <v>196.8325299349338</v>
       </c>
       <c r="U27" t="n">
-        <v>201.019824070288</v>
+        <v>142.2166771414727</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>149.1302706554056</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>168.0246666668999</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>96.16166368791761</v>
       </c>
       <c r="C28" t="n">
-        <v>83.57650460460815</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.12594602561786</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.129941493316</v>
+        <v>100.5590727510014</v>
       </c>
       <c r="S28" t="n">
         <v>211.9380833933517</v>
@@ -24657,16 +24657,16 @@
         <v>224.9842425933824</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2812249288113</v>
+        <v>202.6109084347916</v>
       </c>
       <c r="V28" t="n">
-        <v>178.4408285558955</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>202.8526818425713</v>
       </c>
       <c r="X28" t="n">
-        <v>142.0393388950175</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>323.2057292476917</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>330.0873154342119</v>
+        <v>413.7576319282316</v>
       </c>
       <c r="H29" t="n">
         <v>323.6509895238924</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>52.81137911782699</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>173.8109760246834</v>
+        <v>90.1406595306637</v>
       </c>
       <c r="T29" t="n">
-        <v>132.6618333634419</v>
+        <v>216.3321498574616</v>
       </c>
       <c r="U29" t="n">
-        <v>177.5252296929517</v>
+        <v>251.2220444608842</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>244.0819419761152</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>265.5706522233933</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>348.8456650283635</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24770,13 +24770,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>120.2020428281795</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5168127918783</v>
+        <v>52.84649629785861</v>
       </c>
       <c r="H30" t="n">
-        <v>20.5809039456618</v>
+        <v>104.2512204396815</v>
       </c>
       <c r="I30" t="n">
         <v>60.9333463822972</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>48.82964520272813</v>
       </c>
       <c r="S30" t="n">
         <v>156.3274999959762</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>131.9858810093718</v>
       </c>
     </row>
     <row r="31">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>64.94515652419267</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>167.2978981843334</v>
       </c>
       <c r="H31" t="n">
-        <v>82.36823602773818</v>
+        <v>156.0650507956707</v>
       </c>
       <c r="I31" t="n">
         <v>134.6076337999256</v>
@@ -24885,28 +24885,28 @@
         <v>28.12594602561786</v>
       </c>
       <c r="R31" t="n">
-        <v>146.129941493316</v>
+        <v>62.45962499929632</v>
       </c>
       <c r="S31" t="n">
-        <v>128.2677668993321</v>
+        <v>211.9380833933517</v>
       </c>
       <c r="T31" t="n">
-        <v>141.3139260993627</v>
+        <v>224.9842425933824</v>
       </c>
       <c r="U31" t="n">
         <v>286.2812249288113</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>168.4673268298083</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>212.8261835686585</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>134.9143368580751</v>
       </c>
     </row>
     <row r="32">
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>52.81137911782699</v>
       </c>
       <c r="S32" t="n">
         <v>173.8109760246834</v>
@@ -24973,13 +24973,13 @@
         <v>216.3321498574616</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2220444608842</v>
+        <v>177.5252296929517</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>328.3555330673075</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>147.8413294231113</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25049,22 +25049,22 @@
         <v>72.65718350195647</v>
       </c>
       <c r="T33" t="n">
-        <v>113.1622134409141</v>
+        <v>196.8325299349338</v>
       </c>
       <c r="U33" t="n">
-        <v>142.2166771414727</v>
+        <v>225.8869936354924</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>149.1302706554056</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>168.0246666668999</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>180.8155262120999</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>119.2769993562918</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>62.76364615254948</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>83.62758169031375</v>
+        <v>167.2978981843334</v>
       </c>
       <c r="H34" t="n">
         <v>156.0650507956707</v>
@@ -25098,7 +25098,7 @@
         <v>134.6076337999256</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>44.35834110601193</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>146.129941493316</v>
       </c>
       <c r="S34" t="n">
-        <v>211.9380833933517</v>
+        <v>128.2677668993321</v>
       </c>
       <c r="T34" t="n">
-        <v>224.9842425933824</v>
+        <v>141.3139260993627</v>
       </c>
       <c r="U34" t="n">
         <v>286.2812249288113</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>142.0393388950175</v>
       </c>
       <c r="Y34" t="n">
-        <v>134.9143368580751</v>
+        <v>144.8878385841622</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>322.0411037282091</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>321.2376321369903</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,7 +25171,7 @@
         <v>413.7576319282316</v>
       </c>
       <c r="H35" t="n">
-        <v>323.6509895238924</v>
+        <v>323.0042050683322</v>
       </c>
       <c r="I35" t="n">
         <v>150.9082064313114</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>52.81137911782699</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>173.8109760246834</v>
       </c>
       <c r="T35" t="n">
-        <v>155.6394119221901</v>
+        <v>155.63941192219</v>
       </c>
       <c r="U35" t="n">
         <v>251.2220444608842</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>267.0595205348633</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>288.5482307821414</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>332.7797750826665</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>48.82964520272813</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>156.3274999959762</v>
+        <v>95.63476206070453</v>
       </c>
       <c r="T36" t="n">
-        <v>196.8325299349338</v>
+        <v>136.1397919996622</v>
       </c>
       <c r="U36" t="n">
-        <v>172.4288300621054</v>
+        <v>221.2584752648333</v>
       </c>
       <c r="V36" t="n">
-        <v>172.1078492141538</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>191.0022452256482</v>
+        <v>191.002245225648</v>
       </c>
       <c r="X36" t="n">
-        <v>145.080247268206</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>106.5540831633564</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>87.9227350829409</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>92.9757990731821</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,22 +25362,22 @@
         <v>146.129941493316</v>
       </c>
       <c r="S37" t="n">
-        <v>211.9380833933517</v>
+        <v>151.2453454580801</v>
       </c>
       <c r="T37" t="n">
-        <v>224.9842425933824</v>
+        <v>164.2915046581107</v>
       </c>
       <c r="U37" t="n">
         <v>286.2812249288113</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>191.4449053885564</v>
       </c>
       <c r="W37" t="n">
-        <v>225.8302604013195</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>172.2514918156499</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>301.2248780472958</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25411,7 +25411,7 @@
         <v>323.6509895238924</v>
       </c>
       <c r="I38" t="n">
-        <v>150.9082064313113</v>
+        <v>150.9082064313114</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>52.81137911782697</v>
+        <v>52.81137911782699</v>
       </c>
       <c r="S38" t="n">
         <v>173.8109760246834</v>
@@ -25447,19 +25447,19 @@
         <v>216.3321498574616</v>
       </c>
       <c r="U38" t="n">
-        <v>190.5293065256127</v>
+        <v>190.5293065256126</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>267.0595205348633</v>
       </c>
       <c r="W38" t="n">
-        <v>288.5482307821415</v>
+        <v>288.5482307821414</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>325.5452007207821</v>
+        <v>332.7797750826663</v>
       </c>
     </row>
     <row r="39">
@@ -25475,16 +25475,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>142.8165471939797</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>96.95234252012942</v>
+        <v>104.1869168820137</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>75.82407485660677</v>
+        <v>136.5168127918783</v>
       </c>
       <c r="H39" t="n">
         <v>104.2512204396815</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>48.82964520272813</v>
       </c>
       <c r="S39" t="n">
-        <v>156.3274999959762</v>
+        <v>95.63476206070453</v>
       </c>
       <c r="T39" t="n">
         <v>196.8325299349338</v>
@@ -25532,13 +25532,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>191.0022452256481</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>145.0802472682059</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>144.9899578420327</v>
       </c>
     </row>
     <row r="40">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>119.1392422466658</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>106.5540831633563</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>139.5156505508372</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25572,7 +25572,7 @@
         <v>134.6076337999256</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>44.35834110601193</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>28.12594602561786</v>
       </c>
       <c r="R40" t="n">
-        <v>146.129941493316</v>
+        <v>92.67177791992879</v>
       </c>
       <c r="S40" t="n">
-        <v>211.9380833933517</v>
+        <v>151.2453454580801</v>
       </c>
       <c r="T40" t="n">
-        <v>224.9842425933824</v>
+        <v>164.2915046581107</v>
       </c>
       <c r="U40" t="n">
         <v>286.2812249288113</v>
       </c>
       <c r="V40" t="n">
-        <v>191.4449053885565</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>157.8919154168232</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>336.4498526249249</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>318.9889027324517</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25645,10 +25645,10 @@
         <v>413.7576319282316</v>
       </c>
       <c r="H41" t="n">
-        <v>323.6509895238924</v>
+        <v>277.3670004853366</v>
       </c>
       <c r="I41" t="n">
-        <v>110.1412688861515</v>
+        <v>110.1412688861514</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>52.81137911782697</v>
+        <v>6.527390079271157</v>
       </c>
       <c r="S41" t="n">
-        <v>127.5269869861277</v>
+        <v>173.8109760246834</v>
       </c>
       <c r="T41" t="n">
         <v>216.3321498574616</v>
       </c>
       <c r="U41" t="n">
-        <v>204.9380554223285</v>
+        <v>251.2220444608842</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25718,7 +25718,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>98.78522335482805</v>
       </c>
       <c r="G42" t="n">
         <v>136.5168127918783</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>48.82964520272812</v>
+        <v>48.82964520272813</v>
       </c>
       <c r="S42" t="n">
-        <v>115.5605624508163</v>
+        <v>156.3274999959762</v>
       </c>
       <c r="T42" t="n">
-        <v>150.5485408963781</v>
+        <v>150.548540896378</v>
       </c>
       <c r="U42" t="n">
         <v>225.8869936354924</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>186.5165981108694</v>
       </c>
       <c r="W42" t="n">
-        <v>205.4109941223639</v>
+        <v>210.9280456157596</v>
       </c>
       <c r="X42" t="n">
-        <v>159.4889961649218</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>102.3314839796566</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>99.13705898437553</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.2978981843334</v>
@@ -25806,7 +25806,7 @@
         <v>156.0650507956707</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84069625476576</v>
+        <v>134.6076337999256</v>
       </c>
       <c r="J43" t="n">
         <v>44.35834110601193</v>
@@ -25833,25 +25833,25 @@
         <v>28.12594602561786</v>
       </c>
       <c r="R43" t="n">
-        <v>99.84595245476029</v>
+        <v>99.84595245476018</v>
       </c>
       <c r="S43" t="n">
         <v>211.9380833933517</v>
       </c>
       <c r="T43" t="n">
-        <v>224.9842425933824</v>
+        <v>178.7002535548265</v>
       </c>
       <c r="U43" t="n">
         <v>286.2812249288113</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.370705778668</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>179.4256663504813</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>308.3990525821272</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25882,10 +25882,10 @@
         <v>413.7576319282316</v>
       </c>
       <c r="H44" t="n">
-        <v>323.6509895238924</v>
+        <v>282.8840519787326</v>
       </c>
       <c r="I44" t="n">
-        <v>150.9082064313113</v>
+        <v>150.9082064313114</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>12.04444157266712</v>
+        <v>52.81137911782699</v>
       </c>
       <c r="S44" t="n">
         <v>173.8109760246834</v>
@@ -25921,10 +25921,10 @@
         <v>170.0481608189059</v>
       </c>
       <c r="U44" t="n">
-        <v>204.9380554223285</v>
+        <v>204.9380554223286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>281.4682694315792</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25958,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>95.74987524671843</v>
+        <v>136.5168127918783</v>
       </c>
       <c r="H45" t="n">
         <v>104.2512204396815</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>48.82964520272812</v>
+        <v>48.82964520272813</v>
       </c>
       <c r="S45" t="n">
-        <v>110.0435109574204</v>
+        <v>110.0435109574205</v>
       </c>
       <c r="T45" t="n">
-        <v>150.5485408963781</v>
+        <v>196.8325299349338</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8869936354924</v>
+        <v>179.6030045969368</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>205.4109941223639</v>
+        <v>210.9280456157598</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>159.4889961649218</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5479911433816</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>120.9628320600722</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>104.6541104777714</v>
       </c>
       <c r="G46" t="n">
         <v>167.2978981843334</v>
       </c>
       <c r="H46" t="n">
-        <v>109.781061757115</v>
+        <v>156.0650507956707</v>
       </c>
       <c r="I46" t="n">
-        <v>88.32364476136991</v>
+        <v>134.6076337999256</v>
       </c>
       <c r="J46" t="n">
         <v>44.35834110601193</v>
@@ -26070,13 +26070,13 @@
         <v>28.12594602561786</v>
       </c>
       <c r="R46" t="n">
-        <v>99.84595245476029</v>
+        <v>146.129941493316</v>
       </c>
       <c r="S46" t="n">
-        <v>171.1711458481919</v>
+        <v>211.9380833933517</v>
       </c>
       <c r="T46" t="n">
-        <v>224.9842425933824</v>
+        <v>178.7002535548267</v>
       </c>
       <c r="U46" t="n">
         <v>286.2812249288113</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>307531.9279541577</v>
+        <v>307531.9279541575</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>307531.9279541575</v>
+        <v>307531.9279541576</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>318967.9779481896</v>
+        <v>318967.9779481897</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>318967.9779481897</v>
+        <v>318967.9779481896</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>338375.8122739172</v>
+        <v>338375.8122739173</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>338375.8122739173</v>
+        <v>338375.8122739172</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>338375.8122739172</v>
+        <v>338375.8122739173</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>318967.9779481896</v>
+        <v>318967.9779481897</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>318967.9779481897</v>
+        <v>318967.9779481899</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>307531.9279541575</v>
+        <v>307531.9279541576</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>553011.5286340012</v>
+      </c>
+      <c r="C2" t="n">
         <v>553011.528634001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>553011.5286340009</v>
       </c>
       <c r="D2" t="n">
         <v>553011.5286340009</v>
@@ -26328,31 +26328,31 @@
         <v>182056.0691982248</v>
       </c>
       <c r="G2" t="n">
-        <v>187566.7361346207</v>
+        <v>187566.7361346206</v>
       </c>
       <c r="H2" t="n">
-        <v>187566.7361346207</v>
+        <v>187566.7361346206</v>
       </c>
       <c r="I2" t="n">
         <v>196354.576310737</v>
       </c>
       <c r="J2" t="n">
-        <v>196354.576310737</v>
+        <v>196354.5763107371</v>
       </c>
       <c r="K2" t="n">
-        <v>196354.576310737</v>
+        <v>196354.5763107371</v>
       </c>
       <c r="L2" t="n">
-        <v>196354.576310737</v>
+        <v>196354.5763107371</v>
       </c>
       <c r="M2" t="n">
-        <v>187566.7361346207</v>
+        <v>187566.7361346208</v>
       </c>
       <c r="N2" t="n">
-        <v>187566.7361346207</v>
+        <v>187566.7361346208</v>
       </c>
       <c r="O2" t="n">
-        <v>182056.0691982248</v>
+        <v>182056.069198225</v>
       </c>
       <c r="P2" t="n">
         <v>182056.0691982248</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322603.3187581046</v>
+        <v>322603.3187581045</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3949.221941356344</v>
+        <v>3949.221941356348</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.471923686052335e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>6110.220667920889</v>
+        <v>6110.220667920891</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5808.050717209951</v>
+        <v>5808.05071720996</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26450,13 +26450,13 @@
         <v>25735.52336150127</v>
       </c>
       <c r="M4" t="n">
-        <v>20303.21316308245</v>
+        <v>20303.21316308248</v>
       </c>
       <c r="N4" t="n">
-        <v>20303.21316308245</v>
+        <v>20303.21316308248</v>
       </c>
       <c r="O4" t="n">
-        <v>17630.91594376202</v>
+        <v>17630.91594376205</v>
       </c>
       <c r="P4" t="n">
         <v>17630.91594376202</v>
@@ -26502,13 +26502,13 @@
         <v>13465.87656421698</v>
       </c>
       <c r="M5" t="n">
-        <v>12068.83978784509</v>
+        <v>12068.8397878451</v>
       </c>
       <c r="N5" t="n">
-        <v>12068.83978784509</v>
+        <v>12068.8397878451</v>
       </c>
       <c r="O5" t="n">
-        <v>11192.78785492477</v>
+        <v>11192.78785492478</v>
       </c>
       <c r="P5" t="n">
         <v>11192.78785492477</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77690.54285949944</v>
+        <v>77730.26506031258</v>
       </c>
       <c r="C6" t="n">
-        <v>77690.54285949927</v>
+        <v>77730.26506031241</v>
       </c>
       <c r="D6" t="n">
-        <v>77690.54285949933</v>
+        <v>77730.26506031235</v>
       </c>
       <c r="E6" t="n">
-        <v>-183154.1802274617</v>
+        <v>-170749.276045456</v>
       </c>
       <c r="F6" t="n">
-        <v>139449.1385306429</v>
+        <v>151854.0427126485</v>
       </c>
       <c r="G6" t="n">
-        <v>137666.3331488638</v>
+        <v>149887.5484329895</v>
       </c>
       <c r="H6" t="n">
-        <v>141615.5550902202</v>
+        <v>153836.7703743457</v>
       </c>
       <c r="I6" t="n">
-        <v>137789.3031857033</v>
+        <v>149717.5904639584</v>
       </c>
       <c r="J6" t="n">
-        <v>143899.5238536242</v>
+        <v>155827.8111318793</v>
       </c>
       <c r="K6" t="n">
-        <v>143899.5238536241</v>
+        <v>155827.8111318793</v>
       </c>
       <c r="L6" t="n">
-        <v>143899.5238536241</v>
+        <v>155827.8111318794</v>
       </c>
       <c r="M6" t="n">
-        <v>135807.5043730102</v>
+        <v>148028.7196571359</v>
       </c>
       <c r="N6" t="n">
-        <v>141615.5550902202</v>
+        <v>153836.7703743459</v>
       </c>
       <c r="O6" t="n">
-        <v>139449.1385306429</v>
+        <v>151854.0427126486</v>
       </c>
       <c r="P6" t="n">
-        <v>139449.1385306429</v>
+        <v>151854.0427126485</v>
       </c>
     </row>
   </sheetData>
@@ -26773,13 +26773,13 @@
         <v>384.3450147422286</v>
       </c>
       <c r="N3" t="n">
-        <v>384.3450147422287</v>
+        <v>384.3450147422286</v>
       </c>
       <c r="O3" t="n">
-        <v>384.3450147422287</v>
+        <v>384.3450147422286</v>
       </c>
       <c r="P3" t="n">
-        <v>384.3450147422287</v>
+        <v>384.3450147422286</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>46.28398903855574</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="F4" t="n">
-        <v>46.28398903855567</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="G4" t="n">
         <v>60.69273793527145</v>
       </c>
       <c r="H4" t="n">
-        <v>60.69273793527145</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="I4" t="n">
         <v>83.67031649401969</v>
@@ -26822,16 +26822,16 @@
         <v>83.67031649401969</v>
       </c>
       <c r="M4" t="n">
-        <v>60.69273793527145</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="N4" t="n">
-        <v>60.69273793527152</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="O4" t="n">
-        <v>46.28398903855572</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="P4" t="n">
-        <v>46.28398903855572</v>
+        <v>46.28398903855566</v>
       </c>
     </row>
   </sheetData>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>46.28398903855574</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>14.40874889671578</v>
+        <v>14.40874889671579</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.657440517570702e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>22.97757855874823</v>
+        <v>22.97757855874824</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.30641047980751</v>
+        <v>23.30641047980755</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>46.28398903855574</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>14.40874889671578</v>
+        <v>14.40874889671579</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.657440517570702e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31849,13 +31849,13 @@
         <v>179.4999995737173</v>
       </c>
       <c r="M12" t="n">
-        <v>188.4180229605741</v>
+        <v>167.9964634956207</v>
       </c>
       <c r="N12" t="n">
-        <v>177.6257011218891</v>
+        <v>177.625701121889</v>
       </c>
       <c r="O12" t="n">
-        <v>168.458674018047</v>
+        <v>188.8802334830001</v>
       </c>
       <c r="P12" t="n">
         <v>157.8642759608222</v>
@@ -32086,7 +32086,7 @@
         <v>179.4999995737173</v>
       </c>
       <c r="M15" t="n">
-        <v>167.9964634956207</v>
+        <v>188.418022960574</v>
       </c>
       <c r="N15" t="n">
         <v>177.625701121889</v>
@@ -32095,7 +32095,7 @@
         <v>188.8802334830001</v>
       </c>
       <c r="P15" t="n">
-        <v>157.8642759608222</v>
+        <v>137.4427164958689</v>
       </c>
       <c r="Q15" t="n">
         <v>105.5280878213002</v>
@@ -33745,13 +33745,13 @@
         <v>179.4999995737173</v>
       </c>
       <c r="M36" t="n">
-        <v>202.8267718572898</v>
+        <v>202.8267718572899</v>
       </c>
       <c r="N36" t="n">
-        <v>192.0344500186048</v>
+        <v>192.0344500186049</v>
       </c>
       <c r="O36" t="n">
-        <v>196.6940001388837</v>
+        <v>196.6940001388841</v>
       </c>
       <c r="P36" t="n">
         <v>157.8642759608222</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.545105586903431</v>
+        <v>1.54510558690343</v>
       </c>
       <c r="H38" t="n">
         <v>15.82381259187476</v>
       </c>
       <c r="I38" t="n">
-        <v>59.56768313909457</v>
+        <v>59.56768313909456</v>
       </c>
       <c r="J38" t="n">
-        <v>131.1389053064452</v>
+        <v>131.1389053064451</v>
       </c>
       <c r="K38" t="n">
         <v>196.5432248000674</v>
@@ -33915,10 +33915,10 @@
         <v>222.1881147786971</v>
       </c>
       <c r="Q38" t="n">
-        <v>166.854020947718</v>
+        <v>166.8540209477179</v>
       </c>
       <c r="R38" t="n">
-        <v>97.05773882332271</v>
+        <v>97.05773882332269</v>
       </c>
       <c r="S38" t="n">
         <v>35.20909356156196</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.826704371332341</v>
+        <v>0.8267043713323409</v>
       </c>
       <c r="H39" t="n">
-        <v>7.984223796814979</v>
+        <v>7.984223796814977</v>
       </c>
       <c r="I39" t="n">
         <v>28.46328646911788</v>
       </c>
       <c r="J39" t="n">
-        <v>78.10543360907877</v>
+        <v>78.10543360907876</v>
       </c>
       <c r="K39" t="n">
         <v>133.4946264883456</v>
@@ -33982,13 +33982,13 @@
         <v>179.4999995737173</v>
       </c>
       <c r="M39" t="n">
-        <v>202.8267718572898</v>
+        <v>202.8267718572899</v>
       </c>
       <c r="N39" t="n">
-        <v>192.0344500186048</v>
+        <v>192.0344500186049</v>
       </c>
       <c r="O39" t="n">
-        <v>196.6940001388838</v>
+        <v>196.6940001388841</v>
       </c>
       <c r="P39" t="n">
         <v>157.8642759608222</v>
@@ -33997,7 +33997,7 @@
         <v>105.5280878213002</v>
       </c>
       <c r="R39" t="n">
-        <v>51.32818894991501</v>
+        <v>51.328188949915</v>
       </c>
       <c r="S39" t="n">
         <v>15.35567110786167</v>
@@ -34006,7 +34006,7 @@
         <v>3.332198759887811</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05438844548239087</v>
+        <v>0.05438844548239086</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6930811741253303</v>
+        <v>0.6930811741253302</v>
       </c>
       <c r="H40" t="n">
-        <v>6.16212171176885</v>
+        <v>6.162121711768849</v>
       </c>
       <c r="I40" t="n">
         <v>20.84284112733267</v>
       </c>
       <c r="J40" t="n">
-        <v>49.00083901066085</v>
+        <v>49.00083901066084</v>
       </c>
       <c r="K40" t="n">
-        <v>80.52343095747018</v>
+        <v>80.52343095747017</v>
       </c>
       <c r="L40" t="n">
-        <v>103.0422683785969</v>
+        <v>103.0422683785968</v>
       </c>
       <c r="M40" t="n">
         <v>108.6436244131188</v>
@@ -34067,13 +34067,13 @@
         <v>106.0603218550154</v>
       </c>
       <c r="O40" t="n">
-        <v>97.96387359364218</v>
+        <v>97.96387359364216</v>
       </c>
       <c r="P40" t="n">
-        <v>83.82501764148537</v>
+        <v>83.82501764148536</v>
       </c>
       <c r="Q40" t="n">
-        <v>58.03609722607653</v>
+        <v>58.03609722607652</v>
       </c>
       <c r="R40" t="n">
         <v>31.16344988385348</v>
@@ -34082,10 +34082,10 @@
         <v>12.07851464362052</v>
       </c>
       <c r="T40" t="n">
-        <v>2.961346834899138</v>
+        <v>2.961346834899137</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03780442767956352</v>
+        <v>0.03780442767956351</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.545105586903431</v>
+        <v>1.54510558690343</v>
       </c>
       <c r="H41" t="n">
         <v>15.82381259187476</v>
       </c>
       <c r="I41" t="n">
-        <v>59.56768313909457</v>
+        <v>59.56768313909456</v>
       </c>
       <c r="J41" t="n">
-        <v>131.1389053064452</v>
+        <v>131.1389053064451</v>
       </c>
       <c r="K41" t="n">
         <v>196.5432248000674</v>
@@ -34152,10 +34152,10 @@
         <v>222.1881147786971</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.854020947718</v>
+        <v>166.8540209477179</v>
       </c>
       <c r="R41" t="n">
-        <v>97.05773882332271</v>
+        <v>97.05773882332269</v>
       </c>
       <c r="S41" t="n">
         <v>35.20909356156196</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.826704371332341</v>
+        <v>0.8267043713323409</v>
       </c>
       <c r="H42" t="n">
-        <v>7.984223796814979</v>
+        <v>7.984223796814977</v>
       </c>
       <c r="I42" t="n">
         <v>28.46328646911788</v>
       </c>
       <c r="J42" t="n">
-        <v>78.10543360907877</v>
+        <v>78.10543360907876</v>
       </c>
       <c r="K42" t="n">
         <v>133.4946264883456</v>
       </c>
       <c r="L42" t="n">
-        <v>159.078440108764</v>
+        <v>179.4999995737173</v>
       </c>
       <c r="M42" t="n">
-        <v>188.418022960574</v>
+        <v>167.996463495621</v>
       </c>
       <c r="N42" t="n">
-        <v>177.625701121889</v>
+        <v>177.6257011218891</v>
       </c>
       <c r="O42" t="n">
-        <v>188.8802334830002</v>
+        <v>188.8802334830003</v>
       </c>
       <c r="P42" t="n">
         <v>157.8642759608222</v>
@@ -34234,7 +34234,7 @@
         <v>105.5280878213002</v>
       </c>
       <c r="R42" t="n">
-        <v>51.32818894991501</v>
+        <v>51.328188949915</v>
       </c>
       <c r="S42" t="n">
         <v>15.35567110786167</v>
@@ -34243,7 +34243,7 @@
         <v>3.332198759887811</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05438844548239087</v>
+        <v>0.05438844548239086</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6930811741253303</v>
+        <v>0.6930811741253302</v>
       </c>
       <c r="H43" t="n">
-        <v>6.16212171176885</v>
+        <v>6.162121711768849</v>
       </c>
       <c r="I43" t="n">
         <v>20.84284112733267</v>
       </c>
       <c r="J43" t="n">
-        <v>49.00083901066085</v>
+        <v>49.00083901066084</v>
       </c>
       <c r="K43" t="n">
-        <v>80.52343095747018</v>
+        <v>80.52343095747017</v>
       </c>
       <c r="L43" t="n">
-        <v>103.0422683785969</v>
+        <v>103.0422683785968</v>
       </c>
       <c r="M43" t="n">
         <v>108.6436244131188</v>
@@ -34304,13 +34304,13 @@
         <v>106.0603218550154</v>
       </c>
       <c r="O43" t="n">
-        <v>97.96387359364218</v>
+        <v>97.96387359364216</v>
       </c>
       <c r="P43" t="n">
-        <v>83.82501764148537</v>
+        <v>83.82501764148536</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.03609722607653</v>
+        <v>58.03609722607652</v>
       </c>
       <c r="R43" t="n">
         <v>31.16344988385348</v>
@@ -34319,10 +34319,10 @@
         <v>12.07851464362052</v>
       </c>
       <c r="T43" t="n">
-        <v>2.961346834899138</v>
+        <v>2.961346834899137</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03780442767956352</v>
+        <v>0.03780442767956351</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.545105586903431</v>
+        <v>1.54510558690343</v>
       </c>
       <c r="H44" t="n">
         <v>15.82381259187476</v>
       </c>
       <c r="I44" t="n">
-        <v>59.56768313909457</v>
+        <v>59.56768313909456</v>
       </c>
       <c r="J44" t="n">
-        <v>131.1389053064452</v>
+        <v>131.1389053064451</v>
       </c>
       <c r="K44" t="n">
         <v>196.5432248000674</v>
@@ -34389,10 +34389,10 @@
         <v>222.1881147786971</v>
       </c>
       <c r="Q44" t="n">
-        <v>166.854020947718</v>
+        <v>166.8540209477179</v>
       </c>
       <c r="R44" t="n">
-        <v>97.05773882332271</v>
+        <v>97.05773882332269</v>
       </c>
       <c r="S44" t="n">
         <v>35.20909356156196</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.826704371332341</v>
+        <v>0.8267043713323409</v>
       </c>
       <c r="H45" t="n">
-        <v>7.984223796814979</v>
+        <v>7.984223796814977</v>
       </c>
       <c r="I45" t="n">
         <v>28.46328646911788</v>
       </c>
       <c r="J45" t="n">
-        <v>78.10543360907877</v>
+        <v>78.10543360907876</v>
       </c>
       <c r="K45" t="n">
         <v>133.4946264883456</v>
@@ -34459,10 +34459,10 @@
         <v>188.418022960574</v>
       </c>
       <c r="N45" t="n">
-        <v>157.2041416569357</v>
+        <v>177.625701121889</v>
       </c>
       <c r="O45" t="n">
-        <v>188.8802334830002</v>
+        <v>168.4586740180468</v>
       </c>
       <c r="P45" t="n">
         <v>157.8642759608222</v>
@@ -34471,7 +34471,7 @@
         <v>105.5280878213002</v>
       </c>
       <c r="R45" t="n">
-        <v>51.32818894991501</v>
+        <v>51.328188949915</v>
       </c>
       <c r="S45" t="n">
         <v>15.35567110786167</v>
@@ -34480,7 +34480,7 @@
         <v>3.332198759887811</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05438844548239087</v>
+        <v>0.05438844548239086</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6930811741253303</v>
+        <v>0.6930811741253302</v>
       </c>
       <c r="H46" t="n">
-        <v>6.16212171176885</v>
+        <v>6.162121711768849</v>
       </c>
       <c r="I46" t="n">
         <v>20.84284112733267</v>
       </c>
       <c r="J46" t="n">
-        <v>49.00083901066085</v>
+        <v>49.00083901066084</v>
       </c>
       <c r="K46" t="n">
-        <v>80.52343095747018</v>
+        <v>80.52343095747017</v>
       </c>
       <c r="L46" t="n">
-        <v>103.0422683785969</v>
+        <v>103.0422683785968</v>
       </c>
       <c r="M46" t="n">
         <v>108.6436244131188</v>
@@ -34541,13 +34541,13 @@
         <v>106.0603218550154</v>
       </c>
       <c r="O46" t="n">
-        <v>97.96387359364218</v>
+        <v>97.96387359364216</v>
       </c>
       <c r="P46" t="n">
-        <v>83.82501764148537</v>
+        <v>83.82501764148536</v>
       </c>
       <c r="Q46" t="n">
-        <v>58.03609722607653</v>
+        <v>58.03609722607652</v>
       </c>
       <c r="R46" t="n">
         <v>31.16344988385348</v>
@@ -34556,10 +34556,10 @@
         <v>12.07851464362052</v>
       </c>
       <c r="T46" t="n">
-        <v>2.961346834899138</v>
+        <v>2.961346834899137</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03780442767956352</v>
+        <v>0.03780442767956351</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>19.50243222116409</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>46.28398903855574</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="M11" t="n">
-        <v>46.28398903855574</v>
+        <v>40.96078815908444</v>
       </c>
       <c r="N11" t="n">
-        <v>46.28398903855574</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="O11" t="n">
-        <v>44.41392887538179</v>
+        <v>30.23469753368883</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>40.94561979384309</v>
       </c>
       <c r="M12" t="n">
-        <v>46.28398903855574</v>
+        <v>25.86242957360237</v>
       </c>
       <c r="N12" t="n">
-        <v>46.28398903855574</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="O12" t="n">
-        <v>25.86242957360251</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="P12" t="n">
         <v>23.88986854649193</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>46.28398903855574</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="N13" t="n">
-        <v>46.28398903855574</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="O13" t="n">
-        <v>46.28398903855574</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="P13" t="n">
-        <v>44.41392887538179</v>
+        <v>44.4139288753817</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>19.50243222116409</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>8.062834935276072</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="M14" t="n">
         <v>40.96078815908444</v>
@@ -35661,13 +35661,13 @@
         <v>46.28398903855566</v>
       </c>
       <c r="O14" t="n">
-        <v>46.28398903855567</v>
+        <v>30.23469753368883</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.67429481957685</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>40.94561979384309</v>
       </c>
       <c r="M15" t="n">
-        <v>25.86242957360237</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="N15" t="n">
-        <v>46.28398903855567</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="O15" t="n">
-        <v>46.28398903855567</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="P15" t="n">
-        <v>23.88986854649193</v>
+        <v>3.468309081538629</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>46.28398903855567</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="L16" t="n">
-        <v>46.28398903855567</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="M16" t="n">
-        <v>46.28398903855567</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>44.41392887538173</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>44.4139288753817</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>60.69273793527145</v>
       </c>
       <c r="M17" t="n">
+        <v>60.69273793527145</v>
+      </c>
+      <c r="N17" t="n">
         <v>58.24050609950291</v>
-      </c>
-      <c r="N17" t="n">
-        <v>60.69273793527145</v>
       </c>
       <c r="O17" t="n">
         <v>60.69273793527145</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>40.94561979384316</v>
+        <v>40.94561979384309</v>
       </c>
       <c r="M18" t="n">
         <v>60.69273793527145</v>
@@ -36044,16 +36044,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>58.25393913158732</v>
       </c>
       <c r="L19" t="n">
-        <v>60.69273793527145</v>
+        <v>60.67930490318705</v>
       </c>
       <c r="M19" t="n">
         <v>60.69273793527145</v>
       </c>
       <c r="N19" t="n">
-        <v>58.24050609950291</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.73775834200108</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="M20" t="n">
         <v>40.96078815908444</v>
       </c>
       <c r="N20" t="n">
-        <v>60.69273793527145</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="O20" t="n">
-        <v>30.23469753368883</v>
+        <v>31.68846683713427</v>
       </c>
       <c r="P20" t="n">
-        <v>60.69273793527145</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>40.94561979384309</v>
       </c>
       <c r="M21" t="n">
-        <v>60.69273793527145</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="N21" t="n">
-        <v>60.69273793527145</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="O21" t="n">
         <v>54.09775569443929</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>58.25393913158732</v>
+        <v>58.24050609950289</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="M22" t="n">
-        <v>60.67930490318705</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>60.69273793527145</v>
+        <v>60.69273793527146</v>
       </c>
       <c r="P22" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>83.67031649401969</v>
       </c>
       <c r="K23" t="n">
         <v>83.67031649401969</v>
       </c>
       <c r="L23" t="n">
-        <v>46.48053940846724</v>
+        <v>8.062834935276072</v>
       </c>
       <c r="M23" t="n">
         <v>40.96078815908444</v>
@@ -36372,10 +36372,10 @@
         <v>46.28398903855566</v>
       </c>
       <c r="O23" t="n">
-        <v>30.23469753368883</v>
+        <v>68.65240200688002</v>
       </c>
       <c r="P23" t="n">
-        <v>83.67031649401969</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>61.36308748654527</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>40.94561979384309</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>58.25393913158732</v>
       </c>
       <c r="L25" t="n">
-        <v>80.28969764577651</v>
+        <v>83.67031649401969</v>
       </c>
       <c r="M25" t="n">
-        <v>83.67031649401969</v>
+        <v>24.60249810183</v>
       </c>
       <c r="N25" t="n">
-        <v>83.67031649401969</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>83.67031649401969</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>81.10357690637885</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>83.67031649401969</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>8.062834935276072</v>
@@ -36609,13 +36609,13 @@
         <v>83.67031649401969</v>
       </c>
       <c r="O26" t="n">
-        <v>30.23469753368883</v>
+        <v>72.22686271050044</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>41.99216517681163</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>61.36308748654527</v>
       </c>
       <c r="L27" t="n">
-        <v>83.67031649401969</v>
+        <v>40.94561979384309</v>
       </c>
       <c r="M27" t="n">
-        <v>83.67031649401969</v>
+        <v>67.33399911249626</v>
       </c>
       <c r="N27" t="n">
         <v>83.67031649401969</v>
@@ -36691,7 +36691,7 @@
         <v>54.09775569443929</v>
       </c>
       <c r="P27" t="n">
-        <v>26.19194195133717</v>
+        <v>23.88986854649193</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36761,7 +36761,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>82.85643723341731</v>
+        <v>83.67031649401969</v>
       </c>
       <c r="N28" t="n">
         <v>83.67031649401969</v>
@@ -36770,7 +36770,7 @@
         <v>83.67031649401969</v>
       </c>
       <c r="P28" t="n">
-        <v>81.10357690637885</v>
+        <v>80.28969764577647</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36840,19 +36840,19 @@
         <v>8.062834935276072</v>
       </c>
       <c r="M29" t="n">
+        <v>40.96078815908444</v>
+      </c>
+      <c r="N29" t="n">
+        <v>46.28398903855566</v>
+      </c>
+      <c r="O29" t="n">
         <v>83.67031649401969</v>
-      </c>
-      <c r="N29" t="n">
-        <v>83.67031649401969</v>
-      </c>
-      <c r="O29" t="n">
-        <v>72.22686271050044</v>
       </c>
       <c r="P29" t="n">
         <v>83.67031649401969</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>68.65240200688002</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>61.36308748654527</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>23.88986854649193</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>61.36308748654533</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36995,19 +36995,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>80.28969764577651</v>
+        <v>83.67031649401969</v>
       </c>
       <c r="M31" t="n">
         <v>83.67031649401969</v>
       </c>
       <c r="N31" t="n">
-        <v>83.67031649401969</v>
+        <v>82.85643723341732</v>
       </c>
       <c r="O31" t="n">
-        <v>83.67031649401969</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>81.10357690637885</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>61.36308748654527</v>
       </c>
       <c r="K33" t="n">
-        <v>61.36308748654527</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>40.94561979384309</v>
@@ -37235,16 +37235,16 @@
         <v>83.67031649401969</v>
       </c>
       <c r="M34" t="n">
-        <v>83.67031649401969</v>
+        <v>24.60249810183</v>
       </c>
       <c r="N34" t="n">
         <v>83.67031649401969</v>
       </c>
       <c r="O34" t="n">
-        <v>22.03575851418921</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>81.10357690637885</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>23.62563190185819</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>8.062834935276072</v>
+        <v>58.24050609950309</v>
       </c>
       <c r="M35" t="n">
-        <v>40.96078815908444</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="N35" t="n">
-        <v>46.28398903855566</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="O35" t="n">
-        <v>60.69273793527145</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>40.94561979384309</v>
       </c>
       <c r="M36" t="n">
-        <v>60.69273793527145</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="N36" t="n">
-        <v>60.69273793527145</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="O36" t="n">
-        <v>54.09775569443929</v>
+        <v>54.09775569443971</v>
       </c>
       <c r="P36" t="n">
         <v>23.88986854649193</v>
@@ -37469,16 +37469,16 @@
         <v>58.25393913158732</v>
       </c>
       <c r="L37" t="n">
-        <v>60.67930490318705</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="M37" t="n">
-        <v>60.69273793527145</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>60.69273793527145</v>
+        <v>60.67930490318739</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.453769303445783</v>
       </c>
       <c r="L38" t="n">
-        <v>58.24050609950297</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="M38" t="n">
-        <v>60.69273793527152</v>
+        <v>40.96078815908444</v>
       </c>
       <c r="N38" t="n">
-        <v>60.69273793527152</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="O38" t="n">
-        <v>60.69273793527152</v>
+        <v>30.23469753368883</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>40.94561979384309</v>
       </c>
       <c r="M39" t="n">
-        <v>60.69273793527152</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="N39" t="n">
-        <v>60.69273793527152</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="O39" t="n">
-        <v>54.09775569443931</v>
+        <v>54.09775569443971</v>
       </c>
       <c r="P39" t="n">
-        <v>23.88986854649195</v>
+        <v>23.88986854649193</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>58.25393913158732</v>
       </c>
       <c r="L40" t="n">
-        <v>60.69273793527152</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>60.69273793527152</v>
+        <v>60.6793049031874</v>
       </c>
       <c r="N40" t="n">
-        <v>58.24050609950297</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>60.69273793527152</v>
+        <v>60.69273793527162</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>41.67429481957737</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.062834935276101</v>
+        <v>8.062834935276072</v>
       </c>
       <c r="M41" t="n">
-        <v>40.9607881590845</v>
+        <v>40.96078815908444</v>
       </c>
       <c r="N41" t="n">
-        <v>46.28398903855572</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="O41" t="n">
-        <v>41.67429481957688</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.28398903855572</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>20.52406032888983</v>
+        <v>40.94561979384309</v>
       </c>
       <c r="M42" t="n">
-        <v>46.28398903855572</v>
+        <v>25.8624295736027</v>
       </c>
       <c r="N42" t="n">
-        <v>46.28398903855572</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="O42" t="n">
-        <v>46.28398903855572</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="P42" t="n">
-        <v>23.88986854649195</v>
+        <v>23.88986854649193</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>46.28398903855572</v>
+        <v>44.41392887538188</v>
       </c>
       <c r="L43" t="n">
-        <v>46.28398903855572</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>44.41392887538176</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="O43" t="n">
-        <v>46.28398903855572</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>46.28398903855583</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>46.28398903855572</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>11.43959728588799</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.062834935276101</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="M44" t="n">
-        <v>40.9607881590845</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="N44" t="n">
-        <v>46.28398903855572</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="O44" t="n">
-        <v>30.23469753368889</v>
+        <v>44.4139288753817</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>40.94561979384309</v>
       </c>
       <c r="M45" t="n">
-        <v>46.28398903855572</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="N45" t="n">
-        <v>25.86242957360245</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="O45" t="n">
-        <v>46.28398903855572</v>
+        <v>25.86242957360237</v>
       </c>
       <c r="P45" t="n">
-        <v>23.88986854649195</v>
+        <v>23.88986854649193</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38180,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>46.28398903855572</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="M46" t="n">
-        <v>46.28398903855572</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="N46" t="n">
-        <v>44.41392887538176</v>
+        <v>46.28398903855566</v>
       </c>
       <c r="O46" t="n">
-        <v>46.28398903855572</v>
+        <v>44.4139288753817</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
